--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11145DD6-76F2-4DE9-B293-34C24FC0C9E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47F870C-8C43-4F1B-962B-DFC63E59CDE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{A635938C-4B30-4746-98CA-71BF6C54D22C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A635938C-4B30-4746-98CA-71BF6C54D22C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>001</t>
   </si>
@@ -49,14 +50,58 @@
   </si>
   <si>
     <t>Y End</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Run App</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>Enter App</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Go to Story Mode</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>Go to Story Mode - Second Page</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Middle School Part 1/3</t>
+  </si>
+  <si>
+    <t>Location X</t>
+  </si>
+  <si>
+    <t>Location Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,12 +129,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -406,57 +457,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D78686-76C6-452F-B587-8CDB6FAFC23B}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5234375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.7890625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.7890625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.05078125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" customWidth="1"/>
+    <col min="6" max="6" width="62.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>751</v>
+        <v>314</v>
       </c>
       <c r="C2" s="2">
-        <v>1003</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2">
-        <v>969</v>
+        <v>467</v>
       </c>
       <c r="E2" s="2">
-        <v>1208</v>
+        <v>303</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>690</v>
+      </c>
+      <c r="C3" s="2">
+        <v>479</v>
+      </c>
+      <c r="D3" s="2">
+        <v>891</v>
+      </c>
+      <c r="E3" s="2">
+        <v>631</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1029</v>
+      </c>
+      <c r="C4" s="2">
+        <v>465</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1423</v>
+      </c>
+      <c r="E4" s="2">
+        <v>565</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>203</v>
+      </c>
+      <c r="C5" s="2">
+        <v>726</v>
+      </c>
+      <c r="D5" s="2">
+        <v>499</v>
+      </c>
+      <c r="E5" s="2">
+        <v>822</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>227</v>
+      </c>
+      <c r="C6" s="2">
+        <v>306</v>
+      </c>
+      <c r="D6" s="2">
+        <v>525</v>
+      </c>
+      <c r="E6" s="2">
+        <v>502</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F41B98D-7245-4789-959E-C9764765CCC5}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47F870C-8C43-4F1B-962B-DFC63E59CDE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B93EBF-E0D3-4A41-B324-3CDE12C357BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A635938C-4B30-4746-98CA-71BF6C54D22C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A635938C-4B30-4746-98CA-71BF6C54D22C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>001</t>
   </si>
@@ -86,6 +86,42 @@
   </si>
   <si>
     <t>Location Y</t>
+  </si>
+  <si>
+    <t>Location Number</t>
+  </si>
+  <si>
+    <t>story mode -&gt; scroll right ro end</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>Road to 2002</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>difficulty -&gt; very hard</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>play match button</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>solo play</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>select friend</t>
   </si>
 </sst>
 </file>
@@ -457,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D78686-76C6-452F-B587-8CDB6FAFC23B}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,6 +629,106 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1372</v>
+      </c>
+      <c r="C7" s="2">
+        <v>506</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1487</v>
+      </c>
+      <c r="E7" s="2">
+        <v>618</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1210</v>
+      </c>
+      <c r="C8" s="2">
+        <v>261</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1469</v>
+      </c>
+      <c r="E8" s="2">
+        <v>352</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1384</v>
+      </c>
+      <c r="C9" s="2">
+        <v>835</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1667</v>
+      </c>
+      <c r="E9" s="2">
+        <v>926</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2">
+        <v>341</v>
+      </c>
+      <c r="C10" s="2">
+        <v>541</v>
+      </c>
+      <c r="D10" s="2">
+        <v>733</v>
+      </c>
+      <c r="E10" s="2">
+        <v>653</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1055</v>
+      </c>
+      <c r="C11" s="2">
+        <v>338</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1171</v>
+      </c>
+      <c r="E11" s="2">
+        <v>426</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -601,31 +737,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F41B98D-7245-4789-959E-C9764765CCC5}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1758</v>
+      </c>
+      <c r="C2" s="2">
+        <v>889</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B93EBF-E0D3-4A41-B324-3CDE12C357BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E78917-4192-440B-B333-3360387F3BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A635938C-4B30-4746-98CA-71BF6C54D22C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>001</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>select friend</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>kick off button</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>go to scenario list</t>
   </si>
 </sst>
 </file>
@@ -493,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D78686-76C6-452F-B587-8CDB6FAFC23B}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,6 +739,46 @@
       </c>
       <c r="F11" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1344</v>
+      </c>
+      <c r="C12" s="2">
+        <v>729</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1717</v>
+      </c>
+      <c r="E12" s="2">
+        <v>829</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2">
+        <v>746</v>
+      </c>
+      <c r="C13" s="2">
+        <v>924</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1092</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1012</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E78917-4192-440B-B333-3360387F3BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62FF12D-C19F-407A-9958-79422A5CB1DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A635938C-4B30-4746-98CA-71BF6C54D22C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>001</t>
   </si>
@@ -134,6 +134,42 @@
   </si>
   <si>
     <t>go to scenario list</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>after match - you win</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>after match - break down</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>after match - rank up</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>recover energy - restore button</t>
+  </si>
+  <si>
+    <t>recover energy - cancel button</t>
+  </si>
+  <si>
+    <t>recover energy title</t>
   </si>
 </sst>
 </file>
@@ -505,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D78686-76C6-452F-B587-8CDB6FAFC23B}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,6 +815,126 @@
       </c>
       <c r="F13" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2">
+        <v>804</v>
+      </c>
+      <c r="C14" s="2">
+        <v>571</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1040</v>
+      </c>
+      <c r="E14" s="2">
+        <v>703</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2">
+        <v>994</v>
+      </c>
+      <c r="C15" s="2">
+        <v>594</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1167</v>
+      </c>
+      <c r="E15" s="2">
+        <v>682</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <v>656</v>
+      </c>
+      <c r="C16" s="2">
+        <v>488</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1191</v>
+      </c>
+      <c r="E16" s="2">
+        <v>589</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2">
+        <v>716</v>
+      </c>
+      <c r="C17" s="2">
+        <v>147</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1124</v>
+      </c>
+      <c r="E17" s="2">
+        <v>223</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2">
+        <v>639</v>
+      </c>
+      <c r="C18" s="2">
+        <v>826</v>
+      </c>
+      <c r="D18" s="2">
+        <v>823</v>
+      </c>
+      <c r="E18" s="2">
+        <v>901</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1012</v>
+      </c>
+      <c r="C19" s="2">
+        <v>827</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1204</v>
+      </c>
+      <c r="E19" s="2">
+        <v>902</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62FF12D-C19F-407A-9958-79422A5CB1DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9769FB90-4870-487B-8636-382575A18433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A635938C-4B30-4746-98CA-71BF6C54D22C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>001</t>
   </si>
@@ -170,6 +170,18 @@
   </si>
   <si>
     <t>recover energy title</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>news -&gt; close button</t>
   </si>
 </sst>
 </file>
@@ -541,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D78686-76C6-452F-B587-8CDB6FAFC23B}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -935,6 +947,46 @@
       </c>
       <c r="F19" s="2" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2">
+        <v>388</v>
+      </c>
+      <c r="C20" s="2">
+        <v>178</v>
+      </c>
+      <c r="D20" s="2">
+        <v>513</v>
+      </c>
+      <c r="E20" s="2">
+        <v>251</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2">
+        <v>844</v>
+      </c>
+      <c r="C21" s="2">
+        <v>885</v>
+      </c>
+      <c r="D21" s="2">
+        <v>996</v>
+      </c>
+      <c r="E21" s="2">
+        <v>952</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,60 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9769FB90-4870-487B-8636-382575A18433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBF4EE0-F377-4640-AB22-18777C72C440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A635938C-4B30-4746-98CA-71BF6C54D22C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
+    <t>Template Number</t>
+  </si>
+  <si>
+    <t>X Start</t>
+  </si>
+  <si>
+    <t>Y Start</t>
+  </si>
+  <si>
+    <t>X End</t>
+  </si>
+  <si>
+    <t>Y End</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>001</t>
   </si>
   <si>
-    <t>Template Number</t>
-  </si>
-  <si>
-    <t>X Start</t>
-  </si>
-  <si>
-    <t>Y Start</t>
-  </si>
-  <si>
-    <t>X End</t>
-  </si>
-  <si>
-    <t>Y End</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Run App</t>
   </si>
   <si>
@@ -82,106 +71,106 @@
     <t>Middle School Part 1/3</t>
   </si>
   <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>Road to 2002</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>difficulty -&gt; very hard</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>play match button</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>solo play</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>select friend</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>kick off button</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>go to scenario list</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>after match - you win</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>after match - break down</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>after match - rank up</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>recover energy title</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>recover energy - cancel button</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>recover energy - restore button</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>news -&gt; close button</t>
+  </si>
+  <si>
+    <t>Location Number</t>
+  </si>
+  <si>
     <t>Location X</t>
   </si>
   <si>
     <t>Location Y</t>
   </si>
   <si>
-    <t>Location Number</t>
-  </si>
-  <si>
     <t>story mode -&gt; scroll right ro end</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>Road to 2002</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>difficulty -&gt; very hard</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>play match button</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>solo play</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>select friend</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>kick off button</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>go to scenario list</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>after match - you win</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>after match - break down</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>after match - rank up</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>recover energy - restore button</t>
-  </si>
-  <si>
-    <t>recover energy - cancel button</t>
-  </si>
-  <si>
-    <t>recover energy title</t>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>news -&gt; close button</t>
   </si>
 </sst>
 </file>
@@ -552,11 +541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D78686-76C6-452F-B587-8CDB6FAFC23B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,39 +560,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="C2" s="2">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="D2" s="2">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="E2" s="2">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
@@ -614,16 +603,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>690</v>
+        <v>736</v>
       </c>
       <c r="C3" s="2">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="D3" s="2">
-        <v>891</v>
+        <v>829</v>
       </c>
       <c r="E3" s="2">
-        <v>631</v>
+        <v>571</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -634,16 +623,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>1029</v>
+        <v>1046</v>
       </c>
       <c r="C4" s="2">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="D4" s="2">
-        <v>1423</v>
+        <v>1403</v>
       </c>
       <c r="E4" s="2">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
@@ -654,16 +643,16 @@
         <v>12</v>
       </c>
       <c r="B5" s="2">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C5" s="2">
-        <v>726</v>
+        <v>753</v>
       </c>
       <c r="D5" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E5" s="2">
-        <v>822</v>
+        <v>794</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>13</v>
@@ -674,16 +663,16 @@
         <v>14</v>
       </c>
       <c r="B6" s="2">
-        <v>227</v>
+        <v>360</v>
       </c>
       <c r="C6" s="2">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="D6" s="2">
-        <v>525</v>
+        <v>466</v>
       </c>
       <c r="E6" s="2">
-        <v>502</v>
+        <v>417</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>15</v>
@@ -691,167 +680,167 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
-        <v>1372</v>
+        <v>1381</v>
       </c>
       <c r="C7" s="2">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="D7" s="2">
-        <v>1487</v>
+        <v>1439</v>
       </c>
       <c r="E7" s="2">
-        <v>618</v>
+        <v>592</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>1210</v>
+        <v>1217</v>
       </c>
       <c r="C8" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D8" s="2">
-        <v>1469</v>
+        <v>1306</v>
       </c>
       <c r="E8" s="2">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C9" s="2">
-        <v>835</v>
+        <v>851</v>
       </c>
       <c r="D9" s="2">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="E9" s="2">
-        <v>926</v>
+        <v>889</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C10" s="2">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="D10" s="2">
-        <v>733</v>
+        <v>537</v>
       </c>
       <c r="E10" s="2">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2">
-        <v>1055</v>
+        <v>1074</v>
       </c>
       <c r="C11" s="2">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="D11" s="2">
-        <v>1171</v>
+        <v>1154</v>
       </c>
       <c r="E11" s="2">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
-        <v>1344</v>
+        <v>1363</v>
       </c>
       <c r="C12" s="2">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="D12" s="2">
-        <v>1717</v>
+        <v>1683</v>
       </c>
       <c r="E12" s="2">
-        <v>829</v>
+        <v>806</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="C13" s="2">
-        <v>924</v>
+        <v>946</v>
       </c>
       <c r="D13" s="2">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="E13" s="2">
-        <v>1012</v>
+        <v>995</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>804</v>
+        <v>855</v>
       </c>
       <c r="C14" s="2">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="D14" s="2">
-        <v>1040</v>
+        <v>987</v>
       </c>
       <c r="E14" s="2">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2">
         <v>994</v>
@@ -866,12 +855,12 @@
         <v>682</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2">
         <v>656</v>
@@ -886,72 +875,72 @@
         <v>589</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
         <v>716</v>
       </c>
       <c r="C17" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="2">
         <v>1124</v>
       </c>
       <c r="E17" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2">
         <v>639</v>
       </c>
       <c r="C18" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D18" s="2">
         <v>823</v>
       </c>
       <c r="E18" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2">
         <v>1012</v>
       </c>
       <c r="C19" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D19" s="2">
         <v>1204</v>
       </c>
       <c r="E19" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2">
         <v>388</v>
@@ -966,12 +955,12 @@
         <v>251</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2">
         <v>844</v>
@@ -986,17 +975,17 @@
         <v>952</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F41B98D-7245-4789-959E-C9764765CCC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1013,21 +1002,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>1758</v>
@@ -1036,11 +1025,11 @@
         <v>889</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,42 +1,215 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DCBA88-58B6-47C2-BFBE-45E16F73CEFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Templates" sheetId="1" r:id="rId1"/>
+    <sheet name="Points" sheetId="2" r:id="rId2"/>
+    <sheet name="OCR" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+  <si>
+    <t>Template Number</t>
+  </si>
+  <si>
+    <t>X Start</t>
+  </si>
+  <si>
+    <t>Y Start</t>
+  </si>
+  <si>
+    <t>X End</t>
+  </si>
+  <si>
+    <t>Y End</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Run App</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>Enter App</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Go to Story Mode</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>Go to Story Mode - Second Page</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Middle School Part 1/3</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>Road to 2002</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>difficulty -&gt; very hard</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>play match button</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>solo play</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>select friend</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>kick off button</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>go to scenario list</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>after match - you win</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>after match - break down</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>after match - rank up</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>recover energy title</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>recover energy - cancel button</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>recover energy - restore button</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>news -&gt; close button</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>restart match dialog title</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>restart match dialog - restart button</t>
+  </si>
+  <si>
+    <t>Location Number</t>
+  </si>
+  <si>
+    <t>Location X</t>
+  </si>
+  <si>
+    <t>Location Y</t>
+  </si>
+  <si>
+    <t>story mode -&gt; scroll right ro end</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -52,27 +225,36 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -372,655 +554,548 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="21.5546875"/>
-    <col customWidth="1" max="2" min="2" style="2" width="12.88671875"/>
-    <col customWidth="1" max="3" min="3" style="2" width="14.77734375"/>
-    <col customWidth="1" max="4" min="4" style="2" width="13.77734375"/>
-    <col customWidth="1" max="5" min="5" style="2" width="15"/>
-    <col customWidth="1" max="6" min="6" style="2" width="62.21875"/>
+    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" customWidth="1"/>
+    <col min="6" max="6" width="62.21875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Template Number</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>X Start</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>Y Start</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>X End</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Y End</t>
-        </is>
-      </c>
-      <c r="F1" s="4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
         <v>352</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>168</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>435</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>245</v>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Run App</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
         <v>736</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>523</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>829</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>571</v>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>Enter App</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>003</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
         <v>1046</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>483</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>1403</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>538</v>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Go to Story Mode</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>004</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
         <v>215</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>753</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>498</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>794</v>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>Go to Story Mode - Second Page</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
         <v>360</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>332</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>466</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2">
         <v>417</v>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>Middle School Part 1/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>006</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
         <v>1381</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>524</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>1439</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2">
         <v>592</v>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>Road to 2002</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>007</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
         <v>1217</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>265</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2">
         <v>1306</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2">
         <v>314</v>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>difficulty -&gt; very hard</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>008</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2">
         <v>1385</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>851</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>1661</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2">
         <v>889</v>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>play match button</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>009</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
         <v>337</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>569</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>537</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2">
         <v>620</v>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>solo play</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>010</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
         <v>1074</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>351</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>1154</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="2">
         <v>416</v>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>select friend</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>011</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2">
         <v>1363</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>753</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2">
         <v>1683</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="2">
         <v>806</v>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>kick off button</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>012</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2">
         <v>755</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>946</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2">
         <v>1085</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="2">
         <v>995</v>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>go to scenario list</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>013</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2">
         <v>855</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>584</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="2">
         <v>987</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="2">
         <v>685</v>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>after match - you win</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>014</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
+      <c r="F14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2">
         <v>994</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2">
         <v>594</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="2">
         <v>1167</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="2">
         <v>682</v>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>after match - break down</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>015</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
+      <c r="F15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2">
         <v>656</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2">
         <v>488</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="2">
         <v>1191</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="2">
         <v>589</v>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>after match - rank up</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>016</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
+      <c r="F16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2">
         <v>716</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>146</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="2">
         <v>1124</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="2">
         <v>222</v>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>recover energy title</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>017</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
+      <c r="F17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2">
         <v>639</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2">
         <v>825</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="2">
         <v>823</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="2">
         <v>900</v>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>recover energy - cancel button</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>018</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n">
+      <c r="F18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2">
         <v>1012</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>826</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="2">
         <v>1204</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="2">
         <v>901</v>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>recover energy - restore button</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>019</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n">
+      <c r="F19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2">
         <v>388</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="2">
         <v>178</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="2">
         <v>513</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="2">
         <v>251</v>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>news</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n">
+      <c r="F20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2">
         <v>844</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>885</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="2">
         <v>996</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="2">
         <v>952</v>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>news -&gt; close button</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>021</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+      <c r="F21" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2">
         <v>748</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="2">
         <v>311</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2">
         <v>1097</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="2">
         <v>381</v>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>restart match dialog title</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>022</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+      <c r="F22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2">
         <v>958</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="2">
         <v>667</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2">
         <v>1287</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="2">
         <v>738</v>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>restart match dialog - restart button</t>
-        </is>
+      <c r="F23" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="17"/>
-    <col customWidth="1" max="2" min="2" style="2" width="16.44140625"/>
-    <col customWidth="1" max="3" min="3" style="2" width="19.5546875"/>
-    <col customWidth="1" max="4" min="4" style="2" width="49.6640625"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Location Number</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>Location X</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>Location Y</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
         <v>1758</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>889</v>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>story mode -&gt; scroll right ro end</t>
-        </is>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF0F850-0CEA-4172-AFDD-370BDEFF7756}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DCBA88-58B6-47C2-BFBE-45E16F73CEFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367BAFD1-85AA-4358-A5AC-55DAD156C94E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>Template Number</t>
   </si>
@@ -87,7 +87,7 @@
     <t>008</t>
   </si>
   <si>
-    <t>play match button</t>
+    <t>play match button -&gt; with skip ticket</t>
   </si>
   <si>
     <t>009</t>
@@ -99,7 +99,7 @@
     <t>010</t>
   </si>
   <si>
-    <t>select friend</t>
+    <t>select friend -&gt; FP</t>
   </si>
   <si>
     <t>011</t>
@@ -172,6 +172,54 @@
   </si>
   <si>
     <t>restart match dialog - restart button</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>story mode home -&gt; select events</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>event matche -&gt; select event</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>difficulty -&gt; extreme</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>after match -&gt; special bonus</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>after match -&gt; clear rewards</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>play match button -&gt; without skip ticket</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>energy recovered dialog -&gt; title</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>energy recovered dialog -&gt;  ok button</t>
   </si>
   <si>
     <t>Location Number</t>
@@ -555,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,7 +617,8 @@
     <col min="4" max="4" width="13.77734375" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
     <col min="6" max="6" width="62.21875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="7" max="12" width="8.88671875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1030,6 +1079,166 @@
       </c>
       <c r="F23" s="2" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2">
+        <v>992</v>
+      </c>
+      <c r="C24" s="2">
+        <v>422</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1261</v>
+      </c>
+      <c r="E24" s="2">
+        <v>477</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2">
+        <v>186</v>
+      </c>
+      <c r="C25" s="2">
+        <v>464</v>
+      </c>
+      <c r="D25" s="2">
+        <v>362</v>
+      </c>
+      <c r="E25" s="2">
+        <v>545</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1472</v>
+      </c>
+      <c r="C26" s="2">
+        <v>265</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1725</v>
+      </c>
+      <c r="E26" s="2">
+        <v>349</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="2">
+        <v>747</v>
+      </c>
+      <c r="C27" s="2">
+        <v>634</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1051</v>
+      </c>
+      <c r="E27" s="2">
+        <v>748</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="2">
+        <v>766</v>
+      </c>
+      <c r="C28" s="2">
+        <v>110</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1082</v>
+      </c>
+      <c r="E28" s="2">
+        <v>161</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1220</v>
+      </c>
+      <c r="C29" s="2">
+        <v>864</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1471</v>
+      </c>
+      <c r="E29" s="2">
+        <v>927</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="2">
+        <v>706</v>
+      </c>
+      <c r="C30" s="2">
+        <v>312</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1141</v>
+      </c>
+      <c r="E30" s="2">
+        <v>374</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="2">
+        <v>873</v>
+      </c>
+      <c r="C31" s="2">
+        <v>674</v>
+      </c>
+      <c r="D31" s="2">
+        <v>968</v>
+      </c>
+      <c r="E31" s="2">
+        <v>736</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1056,13 +1265,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1079,7 +1288,7 @@
         <v>889</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF0F850-0CEA-4172-AFDD-370BDEFF7756}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367BAFD1-85AA-4358-A5AC-55DAD156C94E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDE83DC-AE38-42BC-B484-7A79A8F74964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Templates" sheetId="1" r:id="rId1"/>
     <sheet name="Points" sheetId="2" r:id="rId2"/>
-    <sheet name="OCR" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
   <si>
     <t>Template Number</t>
   </si>
@@ -81,7 +80,7 @@
     <t>007</t>
   </si>
   <si>
-    <t>difficulty -&gt; very hard</t>
+    <t>difficulty -&gt; very hard horizontal</t>
   </si>
   <si>
     <t>008</t>
@@ -189,7 +188,7 @@
     <t>025</t>
   </si>
   <si>
-    <t>difficulty -&gt; extreme</t>
+    <t>difficulty -&gt; extreme horizontal</t>
   </si>
   <si>
     <t>026</t>
@@ -220,6 +219,54 @@
   </si>
   <si>
     <t>energy recovered dialog -&gt;  ok button</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difficulty -&gt; very hard vertical </t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>club shared playe button</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>club shared play - accepting member list -&gt; rank</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>join button</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>club shared play - accepting member list title</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>failed to join dialog -&gt; title</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>failed to join dialog -&gt; ok button</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>go to scenario list -&gt;  shared play</t>
   </si>
   <si>
     <t>Location Number</t>
@@ -603,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F39" sqref="A1:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,8 +664,8 @@
     <col min="4" max="4" width="13.77734375" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
     <col min="6" max="6" width="62.21875" style="2" customWidth="1"/>
-    <col min="7" max="12" width="8.88671875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="2"/>
+    <col min="7" max="17" width="8.88671875" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -686,16 +733,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>1046</v>
+        <v>1082</v>
       </c>
       <c r="C4" s="2">
-        <v>483</v>
+        <v>235</v>
       </c>
       <c r="D4" s="2">
-        <v>1403</v>
+        <v>1410</v>
       </c>
       <c r="E4" s="2">
-        <v>538</v>
+        <v>288</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
@@ -1239,6 +1286,166 @@
       </c>
       <c r="F31" s="2" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="2">
+        <v>696</v>
+      </c>
+      <c r="C32" s="2">
+        <v>269</v>
+      </c>
+      <c r="D32" s="2">
+        <v>810</v>
+      </c>
+      <c r="E32" s="2">
+        <v>350</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1550</v>
+      </c>
+      <c r="C33" s="2">
+        <v>926</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1683</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1015</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="2">
+        <v>330</v>
+      </c>
+      <c r="C34" s="2">
+        <v>187</v>
+      </c>
+      <c r="D34" s="2">
+        <v>441</v>
+      </c>
+      <c r="E34" s="2">
+        <v>260</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1444</v>
+      </c>
+      <c r="C35" s="2">
+        <v>735</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1585</v>
+      </c>
+      <c r="E35" s="2">
+        <v>808</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="2">
+        <v>92</v>
+      </c>
+      <c r="C36" s="2">
+        <v>66</v>
+      </c>
+      <c r="D36" s="2">
+        <v>603</v>
+      </c>
+      <c r="E36" s="2">
+        <v>109</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="2">
+        <v>769</v>
+      </c>
+      <c r="C37" s="2">
+        <v>327</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1089</v>
+      </c>
+      <c r="E37" s="2">
+        <v>371</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="2">
+        <v>877</v>
+      </c>
+      <c r="C38" s="2">
+        <v>677</v>
+      </c>
+      <c r="D38" s="2">
+        <v>975</v>
+      </c>
+      <c r="E38" s="2">
+        <v>724</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="2">
+        <v>767</v>
+      </c>
+      <c r="C39" s="2">
+        <v>952</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1078</v>
+      </c>
+      <c r="E39" s="2">
+        <v>999</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1251,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1265,13 +1472,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1288,23 +1495,11 @@
         <v>889</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDE83DC-AE38-42BC-B484-7A79A8F74964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5411C7F3-1352-440B-8CC3-244B6CC5DE9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Templates" sheetId="1" r:id="rId1"/>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F39" sqref="A1:F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,16 +693,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>352</v>
+        <v>249</v>
       </c>
       <c r="C2" s="2">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="E2" s="2">
-        <v>245</v>
+        <v>365</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
@@ -1458,7 +1458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5411C7F3-1352-440B-8CC3-244B6CC5DE9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CD6138-E183-4461-954B-7AA56D55B2EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1433,16 +1433,16 @@
         <v>80</v>
       </c>
       <c r="B39" s="2">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C39" s="2">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="D39" s="2">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="E39" s="2">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>81</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CD6138-E183-4461-954B-7AA56D55B2EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35060CBA-D448-4D5D-AED9-35F70B406771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>Template Number</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>story mode -&gt; scroll right ro end</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difficulty -&gt; normal vertical </t>
   </si>
 </sst>
 </file>
@@ -650,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1448,9 +1454,29 @@
         <v>81</v>
       </c>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="2">
+        <v>706</v>
+      </c>
+      <c r="C40" s="2">
+        <v>280</v>
+      </c>
+      <c r="D40" s="2">
+        <v>916</v>
+      </c>
+      <c r="E40" s="2">
+        <v>327</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35060CBA-D448-4D5D-AED9-35F70B406771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA35EF9-E0CE-4922-B2C3-DE65E247379C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
   <si>
     <t>Template Number</t>
   </si>
@@ -285,13 +285,16 @@
   </si>
   <si>
     <t xml:space="preserve">difficulty -&gt; normal vertical </t>
+  </si>
+  <si>
+    <t>File Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +306,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -656,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,12 +678,13 @@
     <col min="3" max="3" width="14.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="62.21875" style="2" customWidth="1"/>
-    <col min="7" max="17" width="8.88671875" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="62.21875" style="2" customWidth="1"/>
+    <col min="8" max="18" width="8.88671875" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -690,11 +700,14 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -710,11 +723,14 @@
       <c r="E2" s="2">
         <v>365</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -730,11 +746,14 @@
       <c r="E3" s="2">
         <v>571</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -750,11 +769,14 @@
       <c r="E4" s="2">
         <v>288</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -770,11 +792,14 @@
       <c r="E5" s="2">
         <v>794</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -790,11 +815,14 @@
       <c r="E6" s="2">
         <v>417</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -810,11 +838,14 @@
       <c r="E7" s="2">
         <v>592</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -830,11 +861,14 @@
       <c r="E8" s="2">
         <v>314</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -850,11 +884,14 @@
       <c r="E9" s="2">
         <v>889</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -870,11 +907,14 @@
       <c r="E10" s="2">
         <v>620</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -890,11 +930,14 @@
       <c r="E11" s="2">
         <v>416</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -910,11 +953,14 @@
       <c r="E12" s="2">
         <v>806</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -930,11 +976,14 @@
       <c r="E13" s="2">
         <v>995</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -950,11 +999,14 @@
       <c r="E14" s="2">
         <v>685</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -970,11 +1022,14 @@
       <c r="E15" s="2">
         <v>682</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -990,11 +1045,14 @@
       <c r="E16" s="2">
         <v>589</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -1010,11 +1068,14 @@
       <c r="E17" s="2">
         <v>222</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1030,11 +1091,14 @@
       <c r="E18" s="2">
         <v>900</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -1050,11 +1114,14 @@
       <c r="E19" s="2">
         <v>901</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1070,11 +1137,14 @@
       <c r="E20" s="2">
         <v>251</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -1090,11 +1160,14 @@
       <c r="E21" s="2">
         <v>952</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -1110,11 +1183,14 @@
       <c r="E22" s="2">
         <v>381</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
@@ -1130,11 +1206,14 @@
       <c r="E23" s="2">
         <v>738</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -1150,11 +1229,14 @@
       <c r="E24" s="2">
         <v>477</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1170,11 +1252,14 @@
       <c r="E25" s="2">
         <v>545</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1190,11 +1275,14 @@
       <c r="E26" s="2">
         <v>349</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -1210,11 +1298,14 @@
       <c r="E27" s="2">
         <v>748</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
@@ -1230,11 +1321,14 @@
       <c r="E28" s="2">
         <v>161</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
@@ -1250,11 +1344,14 @@
       <c r="E29" s="2">
         <v>927</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -1270,11 +1367,14 @@
       <c r="E30" s="2">
         <v>374</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -1290,11 +1390,14 @@
       <c r="E31" s="2">
         <v>736</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
@@ -1310,11 +1413,14 @@
       <c r="E32" s="2">
         <v>350</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -1330,11 +1436,14 @@
       <c r="E33" s="2">
         <v>1015</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
@@ -1350,11 +1459,14 @@
       <c r="E34" s="2">
         <v>260</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
@@ -1370,11 +1482,14 @@
       <c r="E35" s="2">
         <v>808</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
@@ -1390,11 +1505,14 @@
       <c r="E36" s="2">
         <v>109</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -1410,11 +1528,14 @@
       <c r="E37" s="2">
         <v>371</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>78</v>
       </c>
@@ -1430,11 +1551,14 @@
       <c r="E38" s="2">
         <v>724</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
@@ -1450,11 +1574,14 @@
       <c r="E39" s="2">
         <v>1003</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>86</v>
       </c>
@@ -1470,11 +1597,15 @@
       <c r="E40" s="2">
         <v>327</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA35EF9-E0CE-4922-B2C3-DE65E247379C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D230B8-E08B-4998-A119-72243659D91B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -667,7 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -1563,19 +1563,19 @@
         <v>80</v>
       </c>
       <c r="B39" s="2">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C39" s="2">
-        <v>941</v>
+        <v>950</v>
       </c>
       <c r="D39" s="2">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="E39" s="2">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>81</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D230B8-E08B-4998-A119-72243659D91B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7D9F3B-EC42-4CA4-909C-9E6133435A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,16 +965,16 @@
         <v>28</v>
       </c>
       <c r="B13" s="2">
-        <v>755</v>
+        <v>858</v>
       </c>
       <c r="C13" s="2">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="D13" s="2">
-        <v>1085</v>
+        <v>1007</v>
       </c>
       <c r="E13" s="2">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>28</v>
@@ -1563,19 +1563,19 @@
         <v>80</v>
       </c>
       <c r="B39" s="2">
-        <v>755</v>
+        <v>858</v>
       </c>
       <c r="C39" s="2">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="D39" s="2">
-        <v>1085</v>
+        <v>1007</v>
       </c>
       <c r="E39" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>81</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7D9F3B-EC42-4CA4-909C-9E6133435A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC3D258-9320-421A-877F-297D566D1D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -236,9 +236,6 @@
     <t>033</t>
   </si>
   <si>
-    <t>club shared play - accepting member list -&gt; rank</t>
-  </si>
-  <si>
     <t>034</t>
   </si>
   <si>
@@ -288,6 +285,9 @@
   </si>
   <si>
     <t>File Name</t>
+  </si>
+  <si>
+    <t>club shared play - accepting member list -&gt; members</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,7 +701,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
@@ -1448,27 +1448,27 @@
         <v>70</v>
       </c>
       <c r="B34" s="2">
-        <v>330</v>
+        <v>1335</v>
       </c>
       <c r="C34" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D34" s="2">
-        <v>441</v>
+        <v>1522</v>
       </c>
       <c r="E34" s="2">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2">
         <v>1444</v>
@@ -1483,15 +1483,15 @@
         <v>808</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2">
         <v>92</v>
@@ -1506,15 +1506,15 @@
         <v>109</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2">
         <v>769</v>
@@ -1529,15 +1529,15 @@
         <v>371</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2">
         <v>877</v>
@@ -1552,15 +1552,15 @@
         <v>724</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2">
         <v>858</v>
@@ -1575,15 +1575,15 @@
         <v>1000</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2">
         <v>706</v>
@@ -1598,10 +1598,10 @@
         <v>327</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1629,13 +1629,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1652,7 +1652,7 @@
         <v>889</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC3D258-9320-421A-877F-297D566D1D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CDB607-6BE2-404C-A1A3-260A6848095D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,9 +245,6 @@
     <t>035</t>
   </si>
   <si>
-    <t>club shared play - accepting member list title</t>
-  </si>
-  <si>
     <t>036</t>
   </si>
   <si>
@@ -288,6 +285,9 @@
   </si>
   <si>
     <t>club shared play - accepting member list -&gt; members</t>
+  </si>
+  <si>
+    <t>club shared play - search again</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,7 +701,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
@@ -1463,7 +1463,7 @@
         <v>70</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1494,27 +1494,27 @@
         <v>73</v>
       </c>
       <c r="B36" s="2">
-        <v>92</v>
+        <v>1555</v>
       </c>
       <c r="C36" s="2">
-        <v>66</v>
+        <v>958</v>
       </c>
       <c r="D36" s="2">
-        <v>603</v>
+        <v>1718</v>
       </c>
       <c r="E36" s="2">
-        <v>109</v>
+        <v>996</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2">
         <v>769</v>
@@ -1529,15 +1529,15 @@
         <v>371</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2">
         <v>877</v>
@@ -1552,15 +1552,15 @@
         <v>724</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2">
         <v>858</v>
@@ -1575,15 +1575,15 @@
         <v>1000</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2">
         <v>706</v>
@@ -1598,10 +1598,10 @@
         <v>327</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1629,13 +1629,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1652,7 +1652,7 @@
         <v>889</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CDB607-6BE2-404C-A1A3-260A6848095D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DED979-DE23-40FF-B2EB-BB5A7D206C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
   <si>
     <t>Template Number</t>
   </si>
@@ -92,9 +92,6 @@
     <t>009</t>
   </si>
   <si>
-    <t>solo play</t>
-  </si>
-  <si>
     <t>010</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
     <t>032</t>
   </si>
   <si>
-    <t>club shared playe button</t>
-  </si>
-  <si>
     <t>033</t>
   </si>
   <si>
@@ -288,6 +282,48 @@
   </si>
   <si>
     <t>club shared play - search again</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>recruit in join</t>
+  </si>
+  <si>
+    <t>waiting for members -&gt; 1st place in join</t>
+  </si>
+  <si>
+    <t>waiting for members -&gt; 2d place in join</t>
+  </si>
+  <si>
+    <t>waiting for members -&gt; 3d place in join</t>
+  </si>
+  <si>
+    <t>kick off button in join</t>
+  </si>
+  <si>
+    <t>club shared play button</t>
+  </si>
+  <si>
+    <t>shared play - global disabled</t>
+  </si>
+  <si>
+    <t>solo play - global disabled</t>
   </si>
 </sst>
 </file>
@@ -665,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
@@ -911,12 +947,12 @@
         <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
         <v>1074</v>
@@ -931,15 +967,15 @@
         <v>416</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2">
         <v>1363</v>
@@ -954,15 +990,15 @@
         <v>806</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2">
         <v>858</v>
@@ -977,15 +1013,15 @@
         <v>1000</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
         <v>855</v>
@@ -1000,15 +1036,15 @@
         <v>685</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
         <v>994</v>
@@ -1023,15 +1059,15 @@
         <v>682</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
         <v>656</v>
@@ -1046,15 +1082,15 @@
         <v>589</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2">
         <v>716</v>
@@ -1069,15 +1105,15 @@
         <v>222</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2">
         <v>639</v>
@@ -1092,15 +1128,15 @@
         <v>900</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2">
         <v>1012</v>
@@ -1115,15 +1151,15 @@
         <v>901</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2">
         <v>388</v>
@@ -1138,15 +1174,15 @@
         <v>251</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2">
         <v>844</v>
@@ -1161,15 +1197,15 @@
         <v>952</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2">
         <v>748</v>
@@ -1184,15 +1220,15 @@
         <v>381</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2">
         <v>958</v>
@@ -1207,15 +1243,15 @@
         <v>738</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2">
         <v>992</v>
@@ -1230,15 +1266,15 @@
         <v>477</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2">
         <v>186</v>
@@ -1253,15 +1289,15 @@
         <v>545</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2">
         <v>1472</v>
@@ -1276,15 +1312,15 @@
         <v>349</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2">
         <v>747</v>
@@ -1299,15 +1335,15 @@
         <v>748</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2">
         <v>766</v>
@@ -1322,15 +1358,15 @@
         <v>161</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2">
         <v>1220</v>
@@ -1345,15 +1381,15 @@
         <v>927</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2">
         <v>706</v>
@@ -1368,15 +1404,15 @@
         <v>374</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2">
         <v>873</v>
@@ -1391,15 +1427,15 @@
         <v>736</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="2">
         <v>696</v>
@@ -1417,12 +1453,12 @@
         <v>18</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="2">
         <v>1550</v>
@@ -1437,15 +1473,15 @@
         <v>1015</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2">
         <v>1335</v>
@@ -1460,15 +1496,15 @@
         <v>239</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2">
         <v>1444</v>
@@ -1483,15 +1519,15 @@
         <v>808</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2">
         <v>1555</v>
@@ -1506,15 +1542,15 @@
         <v>996</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2">
         <v>769</v>
@@ -1529,15 +1565,15 @@
         <v>371</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2">
         <v>877</v>
@@ -1552,15 +1588,15 @@
         <v>724</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2">
         <v>858</v>
@@ -1575,15 +1611,15 @@
         <v>1000</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2">
         <v>706</v>
@@ -1598,10 +1634,148 @@
         <v>327</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1017</v>
+      </c>
+      <c r="C41" s="2">
+        <v>566</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1520</v>
+      </c>
+      <c r="E41" s="2">
+        <v>635</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1377</v>
+      </c>
+      <c r="C42" s="2">
+        <v>728</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1672</v>
+      </c>
+      <c r="E42" s="2">
+        <v>797</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1043</v>
+      </c>
+      <c r="C43" s="2">
+        <v>295</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1521</v>
+      </c>
+      <c r="E43" s="2">
+        <v>348</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1043</v>
+      </c>
+      <c r="C44" s="2">
+        <v>468</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1521</v>
+      </c>
+      <c r="E44" s="2">
+        <v>521</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1043</v>
+      </c>
+      <c r="C45" s="2">
+        <v>641</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1521</v>
+      </c>
+      <c r="E45" s="2">
+        <v>694</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1229</v>
+      </c>
+      <c r="C46" s="2">
+        <v>819</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1569</v>
+      </c>
+      <c r="E46" s="2">
+        <v>899</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1629,13 +1803,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1652,7 +1826,7 @@
         <v>889</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DED979-DE23-40FF-B2EB-BB5A7D206C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86B0181-E3C5-49F1-83A1-8040237D135F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
   <si>
     <t>Template Number</t>
   </si>
@@ -324,6 +324,30 @@
   </si>
   <si>
     <t>solo play - global disabled</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>ok button - unable to play dialog</t>
+  </si>
+  <si>
+    <t>unable to play dialog - max number of player -&gt; join</t>
+  </si>
+  <si>
+    <t>match condition have not met dialog - join</t>
+  </si>
+  <si>
+    <t>close button - match condition have not met dialog</t>
   </si>
 </sst>
 </file>
@@ -701,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1776,6 +1800,98 @@
       </c>
       <c r="G46" s="2" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="2">
+        <v>386</v>
+      </c>
+      <c r="C47" s="2">
+        <v>466</v>
+      </c>
+      <c r="D47" s="2">
+        <v>684</v>
+      </c>
+      <c r="E47" s="2">
+        <v>524</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="2">
+        <v>886</v>
+      </c>
+      <c r="C48" s="2">
+        <v>681</v>
+      </c>
+      <c r="D48" s="2">
+        <v>960</v>
+      </c>
+      <c r="E48" s="2">
+        <v>723</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="2">
+        <v>495</v>
+      </c>
+      <c r="C49" s="2">
+        <v>152</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1342</v>
+      </c>
+      <c r="E49" s="2">
+        <v>196</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="2">
+        <v>463</v>
+      </c>
+      <c r="C50" s="2">
+        <v>826</v>
+      </c>
+      <c r="D50" s="2">
+        <v>615</v>
+      </c>
+      <c r="E50" s="2">
+        <v>893</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86B0181-E3C5-49F1-83A1-8040237D135F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8DEBED-3BFB-4288-AD9D-AD750EA5C4AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,13 +341,13 @@
     <t>ok button - unable to play dialog</t>
   </si>
   <si>
-    <t>unable to play dialog - max number of player -&gt; join</t>
-  </si>
-  <si>
-    <t>match condition have not met dialog - join</t>
-  </si>
-  <si>
     <t>close button - match condition have not met dialog</t>
+  </si>
+  <si>
+    <t>unable to play dialog - max number of player -&gt; shared</t>
+  </si>
+  <si>
+    <t>match condition have not met dialog - shared</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1822,7 +1822,7 @@
         <v>101</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1868,7 +1868,7 @@
         <v>103</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -1891,7 +1891,7 @@
         <v>43</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8DEBED-3BFB-4288-AD9D-AD750EA5C4AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3D8D39-8A7C-4AE7-A4CB-37278CCFD209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="111">
   <si>
     <t>Template Number</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t>match condition have not met dialog - shared</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>solo play - global enabled</t>
   </si>
 </sst>
 </file>
@@ -725,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1892,6 +1898,29 @@
       </c>
       <c r="G50" s="2" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="2">
+        <v>146</v>
+      </c>
+      <c r="C51" s="2">
+        <v>493</v>
+      </c>
+      <c r="D51" s="2">
+        <v>319</v>
+      </c>
+      <c r="E51" s="2">
+        <v>555</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3D8D39-8A7C-4AE7-A4CB-37278CCFD209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F81416A-FB1A-418B-BE97-04F517AA4638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="113">
   <si>
     <t>Template Number</t>
   </si>
@@ -354,6 +354,12 @@
   </si>
   <si>
     <t>solo play - global enabled</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>global shared play</t>
   </si>
 </sst>
 </file>
@@ -731,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1921,6 +1927,29 @@
       </c>
       <c r="G51" s="2" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="2">
+        <v>858</v>
+      </c>
+      <c r="C52" s="2">
+        <v>198</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1011</v>
+      </c>
+      <c r="E52" s="2">
+        <v>307</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F81416A-FB1A-418B-BE97-04F517AA4638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF625AEF-2B20-4317-82AC-71AAB090601C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="117">
   <si>
     <t>Template Number</t>
   </si>
@@ -360,6 +360,18 @@
   </si>
   <si>
     <t>global shared play</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>connection error dialog -&gt; shared</t>
+  </si>
+  <si>
+    <t>ok button - connection error dialog</t>
   </si>
 </sst>
 </file>
@@ -737,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1950,6 +1962,52 @@
       </c>
       <c r="G52" s="2" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="2">
+        <v>779</v>
+      </c>
+      <c r="C53" s="2">
+        <v>501</v>
+      </c>
+      <c r="D53" s="2">
+        <v>932</v>
+      </c>
+      <c r="E53" s="2">
+        <v>544</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="2">
+        <v>877</v>
+      </c>
+      <c r="C54" s="2">
+        <v>677</v>
+      </c>
+      <c r="D54" s="2">
+        <v>975</v>
+      </c>
+      <c r="E54" s="2">
+        <v>724</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF625AEF-2B20-4317-82AC-71AAB090601C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D0C057-9EFA-4E8C-99AB-348DAC63706A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="115">
   <si>
     <t>Template Number</t>
   </si>
@@ -365,13 +365,7 @@
     <t>052</t>
   </si>
   <si>
-    <t>053</t>
-  </si>
-  <si>
     <t>connection error dialog -&gt; shared</t>
-  </si>
-  <si>
-    <t>ok button - connection error dialog</t>
   </si>
 </sst>
 </file>
@@ -749,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1984,30 +1978,7 @@
         <v>113</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B54" s="2">
-        <v>877</v>
-      </c>
-      <c r="C54" s="2">
-        <v>677</v>
-      </c>
-      <c r="D54" s="2">
-        <v>975</v>
-      </c>
-      <c r="E54" s="2">
-        <v>724</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D0C057-9EFA-4E8C-99AB-348DAC63706A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CAF059-5321-4108-B74B-65686BAF9386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="117">
   <si>
     <t>Template Number</t>
   </si>
@@ -366,6 +366,12 @@
   </si>
   <si>
     <t>connection error dialog -&gt; shared</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>ok button - connection error dialog</t>
   </si>
 </sst>
 </file>
@@ -743,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1979,6 +1985,29 @@
       </c>
       <c r="G53" s="2" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="2">
+        <v>877</v>
+      </c>
+      <c r="C54" s="2">
+        <v>677</v>
+      </c>
+      <c r="D54" s="2">
+        <v>975</v>
+      </c>
+      <c r="E54" s="2">
+        <v>724</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CAF059-5321-4108-B74B-65686BAF9386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB812B0-141B-40A9-B696-A22DB3BA4BE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="123">
   <si>
     <t>Template Number</t>
   </si>
@@ -68,15 +68,9 @@
     <t>005</t>
   </si>
   <si>
-    <t>Middle School Part 1/3</t>
-  </si>
-  <si>
     <t>006</t>
   </si>
   <si>
-    <t>Road to 2002</t>
-  </si>
-  <si>
     <t>007</t>
   </si>
   <si>
@@ -266,9 +260,6 @@
     <t>Location Y</t>
   </si>
   <si>
-    <t>story mode -&gt; scroll right ro end</t>
-  </si>
-  <si>
     <t>039</t>
   </si>
   <si>
@@ -372,6 +363,33 @@
   </si>
   <si>
     <t>ok button - connection error dialog</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>story mode home -&gt; evolve olayer</t>
+  </si>
+  <si>
+    <t>scroll right ro end</t>
+  </si>
+  <si>
+    <t>end scroll -&gt; Get drills all types</t>
+  </si>
+  <si>
+    <t>start scroll -&gt; get robberto notebook</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>room close dialog - title</t>
+  </si>
+  <si>
+    <t>ok button - room closed dialog</t>
   </si>
 </sst>
 </file>
@@ -749,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,7 +803,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
@@ -888,50 +906,50 @@
         <v>14</v>
       </c>
       <c r="B6" s="2">
-        <v>360</v>
+        <v>123</v>
       </c>
       <c r="C6" s="2">
-        <v>332</v>
+        <v>578</v>
       </c>
       <c r="D6" s="2">
-        <v>466</v>
+        <v>219</v>
       </c>
       <c r="E6" s="2">
-        <v>417</v>
+        <v>684</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
-        <v>1381</v>
+        <v>947</v>
       </c>
       <c r="C7" s="2">
-        <v>524</v>
+        <v>460</v>
       </c>
       <c r="D7" s="2">
-        <v>1439</v>
+        <v>1043</v>
       </c>
       <c r="E7" s="2">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>1217</v>
@@ -946,15 +964,15 @@
         <v>314</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
         <v>1385</v>
@@ -969,15 +987,15 @@
         <v>889</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
         <v>337</v>
@@ -992,15 +1010,15 @@
         <v>620</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
         <v>1074</v>
@@ -1015,15 +1033,15 @@
         <v>416</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
         <v>1363</v>
@@ -1038,15 +1056,15 @@
         <v>806</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2">
         <v>858</v>
@@ -1061,15 +1079,15 @@
         <v>1000</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2">
         <v>855</v>
@@ -1084,15 +1102,15 @@
         <v>685</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2">
         <v>994</v>
@@ -1107,15 +1125,15 @@
         <v>682</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2">
         <v>656</v>
@@ -1130,15 +1148,15 @@
         <v>589</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2">
         <v>716</v>
@@ -1153,15 +1171,15 @@
         <v>222</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
         <v>639</v>
@@ -1176,15 +1194,15 @@
         <v>900</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2">
         <v>1012</v>
@@ -1199,15 +1217,15 @@
         <v>901</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2">
         <v>388</v>
@@ -1222,15 +1240,15 @@
         <v>251</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2">
         <v>844</v>
@@ -1245,15 +1263,15 @@
         <v>952</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2">
         <v>748</v>
@@ -1268,15 +1286,15 @@
         <v>381</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2">
         <v>958</v>
@@ -1291,15 +1309,15 @@
         <v>738</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2">
         <v>992</v>
@@ -1314,15 +1332,15 @@
         <v>477</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2">
         <v>186</v>
@@ -1337,15 +1355,15 @@
         <v>545</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2">
         <v>1472</v>
@@ -1360,15 +1378,15 @@
         <v>349</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2">
         <v>747</v>
@@ -1383,15 +1401,15 @@
         <v>748</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2">
         <v>766</v>
@@ -1406,15 +1424,15 @@
         <v>161</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2">
         <v>1220</v>
@@ -1429,15 +1447,15 @@
         <v>927</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2">
         <v>706</v>
@@ -1452,15 +1470,15 @@
         <v>374</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2">
         <v>873</v>
@@ -1475,15 +1493,15 @@
         <v>736</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32" s="2">
         <v>696</v>
@@ -1498,15 +1516,15 @@
         <v>350</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2">
         <v>1550</v>
@@ -1521,15 +1539,15 @@
         <v>1015</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B34" s="2">
         <v>1335</v>
@@ -1544,15 +1562,15 @@
         <v>239</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="2">
         <v>1444</v>
@@ -1567,15 +1585,15 @@
         <v>808</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2">
         <v>1555</v>
@@ -1590,15 +1608,15 @@
         <v>996</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2">
         <v>769</v>
@@ -1613,15 +1631,15 @@
         <v>371</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2">
         <v>877</v>
@@ -1636,15 +1654,15 @@
         <v>724</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2">
         <v>858</v>
@@ -1659,15 +1677,15 @@
         <v>1000</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2">
         <v>706</v>
@@ -1682,15 +1700,15 @@
         <v>327</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2">
         <v>1017</v>
@@ -1705,15 +1723,15 @@
         <v>635</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2">
         <v>1377</v>
@@ -1728,15 +1746,15 @@
         <v>797</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2">
         <v>1043</v>
@@ -1751,15 +1769,15 @@
         <v>348</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2">
         <v>1043</v>
@@ -1774,15 +1792,15 @@
         <v>521</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2">
         <v>1043</v>
@@ -1797,15 +1815,15 @@
         <v>694</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2">
         <v>1229</v>
@@ -1820,15 +1838,15 @@
         <v>899</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2">
         <v>386</v>
@@ -1843,15 +1861,15 @@
         <v>524</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2">
         <v>886</v>
@@ -1866,15 +1884,15 @@
         <v>723</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2">
         <v>495</v>
@@ -1889,15 +1907,15 @@
         <v>196</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2">
         <v>463</v>
@@ -1912,15 +1930,15 @@
         <v>893</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2">
         <v>146</v>
@@ -1935,15 +1953,15 @@
         <v>555</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2">
         <v>858</v>
@@ -1958,15 +1976,15 @@
         <v>307</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B53" s="2">
         <v>779</v>
@@ -1981,15 +1999,15 @@
         <v>544</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B54" s="2">
         <v>877</v>
@@ -2004,10 +2022,79 @@
         <v>724</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="2">
+        <v>925</v>
+      </c>
+      <c r="C55" s="2">
+        <v>765</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1049</v>
+      </c>
+      <c r="E55" s="2">
+        <v>808</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="2">
+        <v>784</v>
+      </c>
+      <c r="C56" s="2">
+        <v>324</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1062</v>
+      </c>
+      <c r="E56" s="2">
+        <v>367</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="2">
+        <v>877</v>
+      </c>
+      <c r="C57" s="2">
+        <v>677</v>
+      </c>
+      <c r="D57" s="2">
+        <v>975</v>
+      </c>
+      <c r="E57" s="2">
+        <v>724</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2022,7 +2109,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2035,13 +2122,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -2058,7 +2145,7 @@
         <v>889</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB812B0-141B-40A9-B696-A22DB3BA4BE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA8FFAB-393B-4B10-8D8F-607ECC66DE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -929,13 +929,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="2">
-        <v>947</v>
+        <v>1460</v>
       </c>
       <c r="C7" s="2">
         <v>460</v>
       </c>
       <c r="D7" s="2">
-        <v>1043</v>
+        <v>1556</v>
       </c>
       <c r="E7" s="2">
         <v>566</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA8FFAB-393B-4B10-8D8F-607ECC66DE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C578FD-403A-40E0-BBF5-4173F77B7A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="117">
   <si>
     <t>Template Number</t>
   </si>
@@ -71,12 +71,6 @@
     <t>006</t>
   </si>
   <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>difficulty -&gt; very hard horizontal</t>
-  </si>
-  <si>
     <t>008</t>
   </si>
   <si>
@@ -176,12 +170,6 @@
     <t>event matche -&gt; select event</t>
   </si>
   <si>
-    <t>025</t>
-  </si>
-  <si>
-    <t>difficulty -&gt; extreme horizontal</t>
-  </si>
-  <si>
     <t>026</t>
   </si>
   <si>
@@ -212,12 +200,6 @@
     <t>energy recovered dialog -&gt;  ok button</t>
   </si>
   <si>
-    <t>031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">difficulty -&gt; very hard vertical </t>
-  </si>
-  <si>
     <t>032</t>
   </si>
   <si>
@@ -260,12 +242,6 @@
     <t>Location Y</t>
   </si>
   <si>
-    <t>039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">difficulty -&gt; normal vertical </t>
-  </si>
-  <si>
     <t>File Name</t>
   </si>
   <si>
@@ -390,6 +366,12 @@
   </si>
   <si>
     <t>ok button - room closed dialog</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>difficulty</t>
   </si>
 </sst>
 </file>
@@ -767,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,7 +785,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
@@ -921,7 +903,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -944,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -952,16 +934,16 @@
         <v>16</v>
       </c>
       <c r="B8" s="2">
-        <v>1217</v>
+        <v>1385</v>
       </c>
       <c r="C8" s="2">
-        <v>265</v>
+        <v>851</v>
       </c>
       <c r="D8" s="2">
-        <v>1306</v>
+        <v>1661</v>
       </c>
       <c r="E8" s="2">
-        <v>314</v>
+        <v>889</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -975,45 +957,45 @@
         <v>18</v>
       </c>
       <c r="B9" s="2">
-        <v>1385</v>
+        <v>337</v>
       </c>
       <c r="C9" s="2">
-        <v>851</v>
+        <v>569</v>
       </c>
       <c r="D9" s="2">
-        <v>1661</v>
+        <v>537</v>
       </c>
       <c r="E9" s="2">
-        <v>889</v>
+        <v>620</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1074</v>
+      </c>
+      <c r="C10" s="2">
+        <v>351</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1154</v>
+      </c>
+      <c r="E10" s="2">
+        <v>416</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="2">
-        <v>337</v>
-      </c>
-      <c r="C10" s="2">
-        <v>569</v>
-      </c>
-      <c r="D10" s="2">
-        <v>537</v>
-      </c>
-      <c r="E10" s="2">
-        <v>620</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1021,16 +1003,16 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>1074</v>
+        <v>1363</v>
       </c>
       <c r="C11" s="2">
-        <v>351</v>
+        <v>753</v>
       </c>
       <c r="D11" s="2">
-        <v>1154</v>
+        <v>1683</v>
       </c>
       <c r="E11" s="2">
-        <v>416</v>
+        <v>806</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>21</v>
@@ -1044,16 +1026,16 @@
         <v>23</v>
       </c>
       <c r="B12" s="2">
-        <v>1363</v>
+        <v>858</v>
       </c>
       <c r="C12" s="2">
-        <v>753</v>
+        <v>954</v>
       </c>
       <c r="D12" s="2">
-        <v>1683</v>
+        <v>1007</v>
       </c>
       <c r="E12" s="2">
-        <v>806</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>23</v>
@@ -1067,16 +1049,16 @@
         <v>25</v>
       </c>
       <c r="B13" s="2">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C13" s="2">
-        <v>954</v>
+        <v>584</v>
       </c>
       <c r="D13" s="2">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="E13" s="2">
-        <v>1000</v>
+        <v>685</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>25</v>
@@ -1090,16 +1072,16 @@
         <v>27</v>
       </c>
       <c r="B14" s="2">
-        <v>855</v>
+        <v>994</v>
       </c>
       <c r="C14" s="2">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="D14" s="2">
-        <v>987</v>
+        <v>1167</v>
       </c>
       <c r="E14" s="2">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>27</v>
@@ -1113,16 +1095,16 @@
         <v>29</v>
       </c>
       <c r="B15" s="2">
-        <v>994</v>
+        <v>656</v>
       </c>
       <c r="C15" s="2">
-        <v>594</v>
+        <v>488</v>
       </c>
       <c r="D15" s="2">
-        <v>1167</v>
+        <v>1191</v>
       </c>
       <c r="E15" s="2">
-        <v>682</v>
+        <v>589</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>29</v>
@@ -1136,16 +1118,16 @@
         <v>31</v>
       </c>
       <c r="B16" s="2">
-        <v>656</v>
+        <v>716</v>
       </c>
       <c r="C16" s="2">
-        <v>488</v>
+        <v>146</v>
       </c>
       <c r="D16" s="2">
-        <v>1191</v>
+        <v>1124</v>
       </c>
       <c r="E16" s="2">
-        <v>589</v>
+        <v>222</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>31</v>
@@ -1159,16 +1141,16 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>716</v>
+        <v>639</v>
       </c>
       <c r="C17" s="2">
-        <v>146</v>
+        <v>825</v>
       </c>
       <c r="D17" s="2">
-        <v>1124</v>
+        <v>823</v>
       </c>
       <c r="E17" s="2">
-        <v>222</v>
+        <v>900</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>33</v>
@@ -1182,16 +1164,16 @@
         <v>35</v>
       </c>
       <c r="B18" s="2">
-        <v>639</v>
+        <v>1012</v>
       </c>
       <c r="C18" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D18" s="2">
-        <v>823</v>
+        <v>1204</v>
       </c>
       <c r="E18" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>35</v>
@@ -1205,16 +1187,16 @@
         <v>37</v>
       </c>
       <c r="B19" s="2">
-        <v>1012</v>
+        <v>388</v>
       </c>
       <c r="C19" s="2">
-        <v>826</v>
+        <v>178</v>
       </c>
       <c r="D19" s="2">
-        <v>1204</v>
+        <v>513</v>
       </c>
       <c r="E19" s="2">
-        <v>901</v>
+        <v>251</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>37</v>
@@ -1228,16 +1210,16 @@
         <v>39</v>
       </c>
       <c r="B20" s="2">
-        <v>388</v>
+        <v>844</v>
       </c>
       <c r="C20" s="2">
-        <v>178</v>
+        <v>885</v>
       </c>
       <c r="D20" s="2">
-        <v>513</v>
+        <v>996</v>
       </c>
       <c r="E20" s="2">
-        <v>251</v>
+        <v>952</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>39</v>
@@ -1251,16 +1233,16 @@
         <v>41</v>
       </c>
       <c r="B21" s="2">
-        <v>844</v>
+        <v>748</v>
       </c>
       <c r="C21" s="2">
-        <v>885</v>
+        <v>311</v>
       </c>
       <c r="D21" s="2">
-        <v>996</v>
+        <v>1097</v>
       </c>
       <c r="E21" s="2">
-        <v>952</v>
+        <v>381</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>41</v>
@@ -1274,16 +1256,16 @@
         <v>43</v>
       </c>
       <c r="B22" s="2">
-        <v>748</v>
+        <v>958</v>
       </c>
       <c r="C22" s="2">
-        <v>311</v>
+        <v>667</v>
       </c>
       <c r="D22" s="2">
-        <v>1097</v>
+        <v>1287</v>
       </c>
       <c r="E22" s="2">
-        <v>381</v>
+        <v>738</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>43</v>
@@ -1297,16 +1279,16 @@
         <v>45</v>
       </c>
       <c r="B23" s="2">
-        <v>958</v>
+        <v>992</v>
       </c>
       <c r="C23" s="2">
-        <v>667</v>
+        <v>422</v>
       </c>
       <c r="D23" s="2">
-        <v>1287</v>
+        <v>1261</v>
       </c>
       <c r="E23" s="2">
-        <v>738</v>
+        <v>477</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>45</v>
@@ -1320,16 +1302,16 @@
         <v>47</v>
       </c>
       <c r="B24" s="2">
-        <v>992</v>
+        <v>186</v>
       </c>
       <c r="C24" s="2">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="D24" s="2">
-        <v>1261</v>
+        <v>362</v>
       </c>
       <c r="E24" s="2">
-        <v>477</v>
+        <v>545</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>47</v>
@@ -1343,16 +1325,16 @@
         <v>49</v>
       </c>
       <c r="B25" s="2">
-        <v>186</v>
+        <v>747</v>
       </c>
       <c r="C25" s="2">
-        <v>464</v>
+        <v>634</v>
       </c>
       <c r="D25" s="2">
-        <v>362</v>
+        <v>1051</v>
       </c>
       <c r="E25" s="2">
-        <v>545</v>
+        <v>748</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>49</v>
@@ -1366,16 +1348,16 @@
         <v>51</v>
       </c>
       <c r="B26" s="2">
-        <v>1472</v>
+        <v>766</v>
       </c>
       <c r="C26" s="2">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="D26" s="2">
-        <v>1725</v>
+        <v>1082</v>
       </c>
       <c r="E26" s="2">
-        <v>349</v>
+        <v>161</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>51</v>
@@ -1389,16 +1371,16 @@
         <v>53</v>
       </c>
       <c r="B27" s="2">
-        <v>747</v>
+        <v>1220</v>
       </c>
       <c r="C27" s="2">
-        <v>634</v>
+        <v>864</v>
       </c>
       <c r="D27" s="2">
-        <v>1051</v>
+        <v>1471</v>
       </c>
       <c r="E27" s="2">
-        <v>748</v>
+        <v>927</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>53</v>
@@ -1412,16 +1394,16 @@
         <v>55</v>
       </c>
       <c r="B28" s="2">
-        <v>766</v>
+        <v>706</v>
       </c>
       <c r="C28" s="2">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c r="D28" s="2">
-        <v>1082</v>
+        <v>1141</v>
       </c>
       <c r="E28" s="2">
-        <v>161</v>
+        <v>374</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>55</v>
@@ -1435,16 +1417,16 @@
         <v>57</v>
       </c>
       <c r="B29" s="2">
-        <v>1220</v>
+        <v>873</v>
       </c>
       <c r="C29" s="2">
-        <v>864</v>
+        <v>674</v>
       </c>
       <c r="D29" s="2">
-        <v>1471</v>
+        <v>968</v>
       </c>
       <c r="E29" s="2">
-        <v>927</v>
+        <v>736</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>57</v>
@@ -1458,229 +1440,229 @@
         <v>59</v>
       </c>
       <c r="B30" s="2">
-        <v>706</v>
+        <v>1550</v>
       </c>
       <c r="C30" s="2">
-        <v>312</v>
+        <v>926</v>
       </c>
       <c r="D30" s="2">
-        <v>1141</v>
+        <v>1683</v>
       </c>
       <c r="E30" s="2">
-        <v>374</v>
+        <v>1015</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2">
-        <v>873</v>
+        <v>1335</v>
       </c>
       <c r="C31" s="2">
-        <v>674</v>
+        <v>180</v>
       </c>
       <c r="D31" s="2">
-        <v>968</v>
+        <v>1522</v>
       </c>
       <c r="E31" s="2">
-        <v>736</v>
+        <v>239</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2">
-        <v>696</v>
+        <v>1444</v>
       </c>
       <c r="C32" s="2">
-        <v>269</v>
+        <v>735</v>
       </c>
       <c r="D32" s="2">
-        <v>810</v>
+        <v>1585</v>
       </c>
       <c r="E32" s="2">
-        <v>350</v>
+        <v>808</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2">
-        <v>1550</v>
+        <v>1555</v>
       </c>
       <c r="C33" s="2">
-        <v>926</v>
+        <v>958</v>
       </c>
       <c r="D33" s="2">
-        <v>1683</v>
+        <v>1718</v>
       </c>
       <c r="E33" s="2">
-        <v>1015</v>
+        <v>996</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2">
-        <v>1335</v>
+        <v>769</v>
       </c>
       <c r="C34" s="2">
-        <v>180</v>
+        <v>327</v>
       </c>
       <c r="D34" s="2">
-        <v>1522</v>
+        <v>1089</v>
       </c>
       <c r="E34" s="2">
-        <v>239</v>
+        <v>371</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="2">
+        <v>877</v>
+      </c>
+      <c r="C35" s="2">
+        <v>677</v>
+      </c>
+      <c r="D35" s="2">
+        <v>975</v>
+      </c>
+      <c r="E35" s="2">
+        <v>724</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1444</v>
-      </c>
-      <c r="C35" s="2">
-        <v>735</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1585</v>
-      </c>
-      <c r="E35" s="2">
-        <v>808</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="2">
+        <v>858</v>
+      </c>
+      <c r="C36" s="2">
+        <v>954</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1007</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1555</v>
-      </c>
-      <c r="C36" s="2">
-        <v>958</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1718</v>
-      </c>
-      <c r="E36" s="2">
-        <v>996</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2">
-        <v>769</v>
+        <v>1017</v>
       </c>
       <c r="C37" s="2">
-        <v>327</v>
+        <v>566</v>
       </c>
       <c r="D37" s="2">
-        <v>1089</v>
+        <v>1520</v>
       </c>
       <c r="E37" s="2">
-        <v>371</v>
+        <v>635</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2">
-        <v>877</v>
+        <v>1377</v>
       </c>
       <c r="C38" s="2">
-        <v>677</v>
+        <v>728</v>
       </c>
       <c r="D38" s="2">
-        <v>975</v>
+        <v>1672</v>
       </c>
       <c r="E38" s="2">
-        <v>724</v>
+        <v>797</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2">
-        <v>858</v>
+        <v>1043</v>
       </c>
       <c r="C39" s="2">
-        <v>954</v>
+        <v>295</v>
       </c>
       <c r="D39" s="2">
-        <v>1007</v>
+        <v>1521</v>
       </c>
       <c r="E39" s="2">
-        <v>1000</v>
+        <v>348</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1688,160 +1670,160 @@
         <v>79</v>
       </c>
       <c r="B40" s="2">
-        <v>706</v>
+        <v>1043</v>
       </c>
       <c r="C40" s="2">
-        <v>280</v>
+        <v>468</v>
       </c>
       <c r="D40" s="2">
-        <v>916</v>
+        <v>1521</v>
       </c>
       <c r="E40" s="2">
-        <v>327</v>
+        <v>521</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2">
-        <v>1017</v>
+        <v>1043</v>
       </c>
       <c r="C41" s="2">
-        <v>566</v>
+        <v>641</v>
       </c>
       <c r="D41" s="2">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="E41" s="2">
-        <v>635</v>
+        <v>694</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2">
-        <v>1377</v>
+        <v>1229</v>
       </c>
       <c r="C42" s="2">
-        <v>728</v>
+        <v>819</v>
       </c>
       <c r="D42" s="2">
-        <v>1672</v>
+        <v>1569</v>
       </c>
       <c r="E42" s="2">
-        <v>797</v>
+        <v>899</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2">
-        <v>1043</v>
+        <v>386</v>
       </c>
       <c r="C43" s="2">
-        <v>295</v>
+        <v>466</v>
       </c>
       <c r="D43" s="2">
-        <v>1521</v>
+        <v>684</v>
       </c>
       <c r="E43" s="2">
-        <v>348</v>
+        <v>524</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2">
-        <v>1043</v>
+        <v>886</v>
       </c>
       <c r="C44" s="2">
-        <v>468</v>
+        <v>681</v>
       </c>
       <c r="D44" s="2">
-        <v>1521</v>
+        <v>960</v>
       </c>
       <c r="E44" s="2">
-        <v>521</v>
+        <v>723</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2">
-        <v>1043</v>
+        <v>495</v>
       </c>
       <c r="C45" s="2">
-        <v>641</v>
+        <v>152</v>
       </c>
       <c r="D45" s="2">
-        <v>1521</v>
+        <v>1342</v>
       </c>
       <c r="E45" s="2">
-        <v>694</v>
+        <v>196</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2">
-        <v>1229</v>
+        <v>463</v>
       </c>
       <c r="C46" s="2">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="D46" s="2">
-        <v>1569</v>
+        <v>615</v>
       </c>
       <c r="E46" s="2">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1849,91 +1831,91 @@
         <v>98</v>
       </c>
       <c r="B47" s="2">
-        <v>386</v>
+        <v>146</v>
       </c>
       <c r="C47" s="2">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="D47" s="2">
-        <v>684</v>
+        <v>319</v>
       </c>
       <c r="E47" s="2">
-        <v>524</v>
+        <v>555</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2">
-        <v>886</v>
+        <v>858</v>
       </c>
       <c r="C48" s="2">
-        <v>681</v>
+        <v>198</v>
       </c>
       <c r="D48" s="2">
-        <v>960</v>
+        <v>1011</v>
       </c>
       <c r="E48" s="2">
-        <v>723</v>
+        <v>307</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2">
-        <v>495</v>
+        <v>779</v>
       </c>
       <c r="C49" s="2">
-        <v>152</v>
+        <v>501</v>
       </c>
       <c r="D49" s="2">
-        <v>1342</v>
+        <v>932</v>
       </c>
       <c r="E49" s="2">
-        <v>196</v>
+        <v>544</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2">
-        <v>463</v>
+        <v>877</v>
       </c>
       <c r="C50" s="2">
-        <v>826</v>
+        <v>677</v>
       </c>
       <c r="D50" s="2">
-        <v>615</v>
+        <v>975</v>
       </c>
       <c r="E50" s="2">
-        <v>893</v>
+        <v>724</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1941,16 +1923,16 @@
         <v>106</v>
       </c>
       <c r="B51" s="2">
-        <v>146</v>
+        <v>925</v>
       </c>
       <c r="C51" s="2">
-        <v>493</v>
+        <v>765</v>
       </c>
       <c r="D51" s="2">
-        <v>319</v>
+        <v>1049</v>
       </c>
       <c r="E51" s="2">
-        <v>555</v>
+        <v>808</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>106</v>
@@ -1961,140 +1943,71 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2">
-        <v>858</v>
+        <v>784</v>
       </c>
       <c r="C52" s="2">
-        <v>198</v>
+        <v>324</v>
       </c>
       <c r="D52" s="2">
-        <v>1011</v>
+        <v>1062</v>
       </c>
       <c r="E52" s="2">
-        <v>307</v>
+        <v>367</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B53" s="2">
-        <v>779</v>
+        <v>877</v>
       </c>
       <c r="C53" s="2">
-        <v>501</v>
+        <v>677</v>
       </c>
       <c r="D53" s="2">
-        <v>932</v>
+        <v>975</v>
       </c>
       <c r="E53" s="2">
-        <v>544</v>
+        <v>724</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2">
-        <v>877</v>
+        <v>698</v>
       </c>
       <c r="C54" s="2">
-        <v>677</v>
+        <v>265</v>
       </c>
       <c r="D54" s="2">
-        <v>975</v>
+        <v>787</v>
       </c>
       <c r="E54" s="2">
-        <v>724</v>
+        <v>314</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55" s="2">
-        <v>925</v>
-      </c>
-      <c r="C55" s="2">
-        <v>765</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1049</v>
-      </c>
-      <c r="E55" s="2">
-        <v>808</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B56" s="2">
-        <v>784</v>
-      </c>
-      <c r="C56" s="2">
-        <v>324</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1062</v>
-      </c>
-      <c r="E56" s="2">
-        <v>367</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="2">
-        <v>877</v>
-      </c>
-      <c r="C57" s="2">
-        <v>677</v>
-      </c>
-      <c r="D57" s="2">
-        <v>975</v>
-      </c>
-      <c r="E57" s="2">
-        <v>724</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2122,13 +2035,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -2145,7 +2058,7 @@
         <v>889</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C578FD-403A-40E0-BBF5-4173F77B7A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9071E292-7503-472A-B83B-81C2B6C82233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -752,7 +752,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1992,16 +1992,16 @@
         <v>115</v>
       </c>
       <c r="B54" s="2">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="C54" s="2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="D54" s="2">
-        <v>787</v>
+        <v>843</v>
       </c>
       <c r="E54" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>115</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1954,16 +1954,16 @@
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1954,16 +1954,16 @@
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1460</v>
+        <v>1328</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1556</v>
+        <v>1400</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>566</v>
+        <v>515</v>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
@@ -1957,13 +1957,13 @@
         <v>716</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>838</v>
+        <v>795</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,12 +31,6 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -60,7 +54,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -73,6 +67,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -385,8 +391,8 @@
   </sheetPr>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -398,1579 +404,1579 @@
     <col width="15" customWidth="1" style="2" min="5" max="5"/>
     <col width="15" customWidth="1" style="1" min="6" max="6"/>
     <col width="62.21875" customWidth="1" style="2" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="2" min="8" max="18"/>
-    <col width="8.88671875" customWidth="1" style="2" min="19" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="2" min="8" max="21"/>
+    <col width="8.88671875" customWidth="1" style="2" min="22" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Template Number</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>X Start</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Y Start</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>X End</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Y End</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>File Name</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>001</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="5" t="n">
         <v>254</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="5" t="n">
         <v>271</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="5" t="n">
         <v>378</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="5" t="n">
         <v>359</v>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="8" t="inlineStr">
         <is>
           <t>001</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>Run App</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>002</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="5" t="n">
         <v>741</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="5" t="n">
         <v>528</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="5" t="n">
         <v>824</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="5" t="n">
         <v>566</v>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>002</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>Enter App</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>003</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="5" t="n">
         <v>1082</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="5" t="n">
         <v>235</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="5" t="n">
         <v>1410</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="5" t="n">
         <v>288</v>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" s="8" t="inlineStr">
         <is>
           <t>003</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>Go to Story Mode</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="8" t="inlineStr">
         <is>
           <t>004</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="5" t="n">
         <v>215</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="5" t="n">
         <v>753</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="5" t="n">
         <v>498</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="5" t="n">
         <v>794</v>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>004</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>Go to Story Mode - Second Page</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>005</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="5" t="n">
         <v>123</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="5" t="n">
         <v>578</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="5" t="n">
         <v>219</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="5" t="n">
         <v>684</v>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>005</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>start scroll -&gt; get robberto notebook</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>006</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="5" t="n">
         <v>1328</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="5" t="n">
         <v>465</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="5" t="n">
         <v>1400</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="5" t="n">
         <v>515</v>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" s="8" t="inlineStr">
         <is>
           <t>006</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>end scroll -&gt; Get drills all types</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="8" t="inlineStr">
         <is>
           <t>008</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="5" t="n">
         <v>1385</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="5" t="n">
         <v>851</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="5" t="n">
         <v>1661</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="5" t="n">
         <v>889</v>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t>008</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>play match button -&gt; with skip ticket</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="8" t="inlineStr">
         <is>
           <t>009</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="5" t="n">
         <v>337</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="5" t="n">
         <v>569</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="5" t="n">
         <v>537</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="5" t="n">
         <v>620</v>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>009</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>solo play - global disabled</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="8" t="inlineStr">
         <is>
           <t>010</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="5" t="n">
         <v>1074</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="5" t="n">
         <v>351</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="5" t="n">
         <v>1154</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="5" t="n">
         <v>416</v>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>010</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>select friend -&gt; FP</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="8" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="5" t="n">
         <v>1363</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="5" t="n">
         <v>753</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="5" t="n">
         <v>1683</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="5" t="n">
         <v>806</v>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>kick off button</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="8" t="inlineStr">
         <is>
           <t>012</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="5" t="n">
         <v>858</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="5" t="n">
         <v>954</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="5" t="n">
         <v>1007</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" s="8" t="inlineStr">
         <is>
           <t>012</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>go to scenario list</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="8" t="inlineStr">
         <is>
           <t>013</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="5" t="n">
         <v>855</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="5" t="n">
         <v>584</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="5" t="n">
         <v>987</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="5" t="n">
         <v>685</v>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" s="8" t="inlineStr">
         <is>
           <t>013</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>after match - you win</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="8" t="inlineStr">
         <is>
           <t>014</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="5" t="n">
         <v>994</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="5" t="n">
         <v>594</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="5" t="n">
         <v>1167</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="5" t="n">
         <v>682</v>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>014</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>after match - break down</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>015</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="5" t="n">
         <v>656</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="5" t="n">
         <v>488</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="5" t="n">
         <v>1191</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="5" t="n">
         <v>589</v>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" s="8" t="inlineStr">
         <is>
           <t>015</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>after match - rank up</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="8" t="inlineStr">
         <is>
           <t>016</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="5" t="n">
         <v>716</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="5" t="n">
         <v>146</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="5" t="n">
         <v>1124</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="5" t="n">
         <v>222</v>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" s="8" t="inlineStr">
         <is>
           <t>016</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>recover energy title</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="8" t="inlineStr">
         <is>
           <t>017</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="5" t="n">
         <v>639</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="5" t="n">
         <v>825</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="5" t="n">
         <v>823</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="5" t="n">
         <v>900</v>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" s="8" t="inlineStr">
         <is>
           <t>017</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>recover energy - cancel button</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="8" t="inlineStr">
         <is>
           <t>018</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="5" t="n">
         <v>1012</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="5" t="n">
         <v>826</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="5" t="n">
         <v>1204</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="5" t="n">
         <v>901</v>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" s="8" t="inlineStr">
         <is>
           <t>018</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>recover energy - restore button</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="8" t="inlineStr">
         <is>
           <t>019</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="5" t="n">
         <v>388</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="5" t="n">
         <v>178</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="5" t="n">
         <v>513</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="5" t="n">
         <v>251</v>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" s="8" t="inlineStr">
         <is>
           <t>019</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="8" t="inlineStr">
         <is>
           <t>020</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="5" t="n">
         <v>844</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="5" t="n">
         <v>885</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="5" t="n">
         <v>996</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="5" t="n">
         <v>952</v>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" s="8" t="inlineStr">
         <is>
           <t>020</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>news -&gt; close button</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" s="8" t="inlineStr">
         <is>
           <t>021</t>
         </is>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="5" t="n">
         <v>748</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="5" t="n">
         <v>311</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="5" t="n">
         <v>1097</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="5" t="n">
         <v>381</v>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" s="8" t="inlineStr">
         <is>
           <t>021</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>restart match dialog title</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+      <c r="A22" s="8" t="inlineStr">
         <is>
           <t>022</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="5" t="n">
         <v>958</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="5" t="n">
         <v>667</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="5" t="n">
         <v>1287</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="5" t="n">
         <v>738</v>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" s="8" t="inlineStr">
         <is>
           <t>022</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>restart match dialog - restart button</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" s="8" t="inlineStr">
         <is>
           <t>023</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="5" t="n">
         <v>992</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="5" t="n">
         <v>422</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="5" t="n">
         <v>1261</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="5" t="n">
         <v>477</v>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" s="8" t="inlineStr">
         <is>
           <t>023</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>story mode home -&gt; select events</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" s="8" t="inlineStr">
         <is>
           <t>024</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="5" t="n">
         <v>186</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="5" t="n">
         <v>464</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="5" t="n">
         <v>362</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="5" t="n">
         <v>545</v>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" s="8" t="inlineStr">
         <is>
           <t>024</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>event matche -&gt; select event</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="8" t="inlineStr">
         <is>
           <t>026</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="5" t="n">
         <v>747</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="5" t="n">
         <v>634</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="5" t="n">
         <v>1051</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="5" t="n">
         <v>748</v>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" s="8" t="inlineStr">
         <is>
           <t>026</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>after match -&gt; special bonus</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" s="8" t="inlineStr">
         <is>
           <t>027</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="5" t="n">
         <v>766</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="5" t="n">
         <v>110</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="5" t="n">
         <v>1082</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="5" t="n">
         <v>161</v>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" s="8" t="inlineStr">
         <is>
           <t>027</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>after match -&gt; clear rewards</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+      <c r="A27" s="8" t="inlineStr">
         <is>
           <t>028</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="5" t="n">
         <v>1220</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="5" t="n">
         <v>864</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="5" t="n">
         <v>1471</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="5" t="n">
         <v>927</v>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" s="8" t="inlineStr">
         <is>
           <t>028</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>play match button -&gt; without skip ticket</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="A28" s="8" t="inlineStr">
         <is>
           <t>029</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="5" t="n">
         <v>706</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="5" t="n">
         <v>312</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="5" t="n">
         <v>1141</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="5" t="n">
         <v>374</v>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" s="8" t="inlineStr">
         <is>
           <t>029</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>energy recovered dialog -&gt; title</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+      <c r="A29" s="8" t="inlineStr">
         <is>
           <t>030</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="5" t="n">
         <v>873</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="5" t="n">
         <v>674</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="5" t="n">
         <v>968</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="5" t="n">
         <v>736</v>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" s="8" t="inlineStr">
         <is>
           <t>030</t>
         </is>
       </c>
-      <c r="G29" s="2" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>energy recovered dialog -&gt;  ok button</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+      <c r="A30" s="8" t="inlineStr">
         <is>
           <t>032</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="5" t="n">
         <v>1550</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="5" t="n">
         <v>926</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="5" t="n">
         <v>1683</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="5" t="n">
         <v>1015</v>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" s="8" t="inlineStr">
         <is>
           <t>032</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>club shared play button</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>033</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="5" t="n">
         <v>1335</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="5" t="n">
         <v>180</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="5" t="n">
         <v>1522</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="5" t="n">
         <v>239</v>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" s="8" t="inlineStr">
         <is>
           <t>033</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>club shared play - accepting member list -&gt; members</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+      <c r="A32" s="8" t="inlineStr">
         <is>
           <t>034</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="5" t="n">
         <v>1444</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="5" t="n">
         <v>735</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="5" t="n">
         <v>1585</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="5" t="n">
         <v>808</v>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" s="8" t="inlineStr">
         <is>
           <t>034</t>
         </is>
       </c>
-      <c r="G32" s="2" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>join button</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="A33" s="8" t="inlineStr">
         <is>
           <t>035</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="5" t="n">
         <v>1555</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="5" t="n">
         <v>958</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="5" t="n">
         <v>1718</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="5" t="n">
         <v>996</v>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" s="8" t="inlineStr">
         <is>
           <t>035</t>
         </is>
       </c>
-      <c r="G33" s="2" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>club shared play - search again</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+      <c r="A34" s="8" t="inlineStr">
         <is>
           <t>036</t>
         </is>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="5" t="n">
         <v>769</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="5" t="n">
         <v>327</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="5" t="n">
         <v>1089</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="5" t="n">
         <v>371</v>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" s="8" t="inlineStr">
         <is>
           <t>036</t>
         </is>
       </c>
-      <c r="G34" s="2" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>failed to join dialog -&gt; title</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+      <c r="A35" s="8" t="inlineStr">
         <is>
           <t>037</t>
         </is>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="5" t="n">
         <v>877</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="5" t="n">
         <v>677</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="5" t="n">
         <v>975</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="5" t="n">
         <v>724</v>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" s="8" t="inlineStr">
         <is>
           <t>037</t>
         </is>
       </c>
-      <c r="G35" s="2" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>failed to join dialog -&gt; ok button</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+      <c r="A36" s="8" t="inlineStr">
         <is>
           <t>038</t>
         </is>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="5" t="n">
         <v>858</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="5" t="n">
         <v>954</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="5" t="n">
         <v>1007</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" s="8" t="inlineStr">
         <is>
           <t>038</t>
         </is>
       </c>
-      <c r="G36" s="2" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>go to scenario list -&gt;  shared play</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="A37" s="8" t="inlineStr">
         <is>
           <t>040</t>
         </is>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="5" t="n">
         <v>1017</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="5" t="n">
         <v>566</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="5" t="n">
         <v>1520</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="5" t="n">
         <v>635</v>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" s="8" t="inlineStr">
         <is>
           <t>040</t>
         </is>
       </c>
-      <c r="G37" s="2" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t>shared play - global disabled</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+      <c r="A38" s="8" t="inlineStr">
         <is>
           <t>041</t>
         </is>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="5" t="n">
         <v>1377</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="5" t="n">
         <v>728</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="5" t="n">
         <v>1672</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="5" t="n">
         <v>797</v>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" s="8" t="inlineStr">
         <is>
           <t>041</t>
         </is>
       </c>
-      <c r="G38" s="2" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t>recruit in join</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+      <c r="A39" s="8" t="inlineStr">
         <is>
           <t>042</t>
         </is>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="5" t="n">
         <v>1043</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="5" t="n">
         <v>295</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="5" t="n">
         <v>1521</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="5" t="n">
         <v>348</v>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" s="8" t="inlineStr">
         <is>
           <t>042</t>
         </is>
       </c>
-      <c r="G39" s="2" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr">
         <is>
           <t>waiting for members -&gt; 1st place in join</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+      <c r="A40" s="8" t="inlineStr">
         <is>
           <t>043</t>
         </is>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="5" t="n">
         <v>1043</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="5" t="n">
         <v>468</v>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" s="5" t="n">
         <v>1521</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="5" t="n">
         <v>521</v>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" s="8" t="inlineStr">
         <is>
           <t>042</t>
         </is>
       </c>
-      <c r="G40" s="2" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr">
         <is>
           <t>waiting for members -&gt; 2d place in join</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" s="8" t="inlineStr">
         <is>
           <t>044</t>
         </is>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="5" t="n">
         <v>1043</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="5" t="n">
         <v>641</v>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" s="5" t="n">
         <v>1521</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="5" t="n">
         <v>694</v>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" s="8" t="inlineStr">
         <is>
           <t>042</t>
         </is>
       </c>
-      <c r="G41" s="2" t="inlineStr">
+      <c r="G41" s="5" t="inlineStr">
         <is>
           <t>waiting for members -&gt; 3d place in join</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+      <c r="A42" s="8" t="inlineStr">
         <is>
           <t>045</t>
         </is>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="5" t="n">
         <v>1229</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="5" t="n">
         <v>819</v>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" s="5" t="n">
         <v>1569</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="5" t="n">
         <v>899</v>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" s="8" t="inlineStr">
         <is>
           <t>045</t>
         </is>
       </c>
-      <c r="G42" s="2" t="inlineStr">
+      <c r="G42" s="5" t="inlineStr">
         <is>
           <t>kick off button in join</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+      <c r="A43" s="8" t="inlineStr">
         <is>
           <t>046</t>
         </is>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="5" t="n">
         <v>386</v>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="5" t="n">
         <v>466</v>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" s="5" t="n">
         <v>684</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="5" t="n">
         <v>524</v>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" s="8" t="inlineStr">
         <is>
           <t>046</t>
         </is>
       </c>
-      <c r="G43" s="2" t="inlineStr">
+      <c r="G43" s="5" t="inlineStr">
         <is>
           <t>unable to play dialog - max number of player -&gt; shared</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="A44" s="8" t="inlineStr">
         <is>
           <t>047</t>
         </is>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="5" t="n">
         <v>886</v>
       </c>
-      <c r="C44" s="2" t="n">
+      <c r="C44" s="5" t="n">
         <v>681</v>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="5" t="n">
         <v>960</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="5" t="n">
         <v>723</v>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" s="8" t="inlineStr">
         <is>
           <t>047</t>
         </is>
       </c>
-      <c r="G44" s="2" t="inlineStr">
+      <c r="G44" s="5" t="inlineStr">
         <is>
           <t>ok button - unable to play dialog</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+      <c r="A45" s="8" t="inlineStr">
         <is>
           <t>048</t>
         </is>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="5" t="n">
         <v>495</v>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="5" t="n">
         <v>152</v>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" s="5" t="n">
         <v>1342</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="5" t="n">
         <v>196</v>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" s="8" t="inlineStr">
         <is>
           <t>048</t>
         </is>
       </c>
-      <c r="G45" s="2" t="inlineStr">
+      <c r="G45" s="5" t="inlineStr">
         <is>
           <t>match condition have not met dialog - shared</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+      <c r="A46" s="8" t="inlineStr">
         <is>
           <t>049</t>
         </is>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="5" t="n">
         <v>463</v>
       </c>
-      <c r="C46" s="2" t="n">
+      <c r="C46" s="5" t="n">
         <v>826</v>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" s="5" t="n">
         <v>615</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="5" t="n">
         <v>893</v>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" s="8" t="inlineStr">
         <is>
           <t>020</t>
         </is>
       </c>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="G46" s="5" t="inlineStr">
         <is>
           <t>close button - match condition have not met dialog</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+      <c r="A47" s="8" t="inlineStr">
         <is>
           <t>050</t>
         </is>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="5" t="n">
         <v>146</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="5" t="n">
         <v>493</v>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" s="5" t="n">
         <v>319</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="5" t="n">
         <v>555</v>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" s="8" t="inlineStr">
         <is>
           <t>050</t>
         </is>
       </c>
-      <c r="G47" s="2" t="inlineStr">
+      <c r="G47" s="5" t="inlineStr">
         <is>
           <t>solo play - global enabled</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+      <c r="A48" s="8" t="inlineStr">
         <is>
           <t>051</t>
         </is>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="5" t="n">
         <v>858</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="5" t="n">
         <v>198</v>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" s="5" t="n">
         <v>1011</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="5" t="n">
         <v>307</v>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" s="8" t="inlineStr">
         <is>
           <t>051</t>
         </is>
       </c>
-      <c r="G48" s="2" t="inlineStr">
+      <c r="G48" s="5" t="inlineStr">
         <is>
           <t>global shared play</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+      <c r="A49" s="8" t="inlineStr">
         <is>
           <t>052</t>
         </is>
       </c>
-      <c r="B49" s="2" t="n">
+      <c r="B49" s="5" t="n">
         <v>779</v>
       </c>
-      <c r="C49" s="2" t="n">
+      <c r="C49" s="5" t="n">
         <v>501</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="5" t="n">
         <v>932</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="5" t="n">
         <v>544</v>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" s="8" t="inlineStr">
         <is>
           <t>052</t>
         </is>
       </c>
-      <c r="G49" s="2" t="inlineStr">
+      <c r="G49" s="5" t="inlineStr">
         <is>
           <t>connection error dialog -&gt; shared</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+      <c r="A50" s="8" t="inlineStr">
         <is>
           <t>053</t>
         </is>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="5" t="n">
         <v>877</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="5" t="n">
         <v>677</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="5" t="n">
         <v>975</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="5" t="n">
         <v>724</v>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" s="8" t="inlineStr">
         <is>
           <t>037</t>
         </is>
       </c>
-      <c r="G50" s="2" t="inlineStr">
+      <c r="G50" s="5" t="inlineStr">
         <is>
           <t>ok button - connection error dialog</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+      <c r="A51" s="8" t="inlineStr">
         <is>
           <t>054</t>
         </is>
       </c>
-      <c r="B51" s="2" t="n">
+      <c r="B51" s="5" t="n">
         <v>925</v>
       </c>
-      <c r="C51" s="2" t="n">
+      <c r="C51" s="5" t="n">
         <v>765</v>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" s="5" t="n">
         <v>1049</v>
       </c>
-      <c r="E51" s="2" t="n">
+      <c r="E51" s="5" t="n">
         <v>808</v>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" s="8" t="inlineStr">
         <is>
           <t>054</t>
         </is>
       </c>
-      <c r="G51" s="2" t="inlineStr">
+      <c r="G51" s="5" t="inlineStr">
         <is>
           <t>story mode home -&gt; evolve olayer</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="A52" s="8" t="inlineStr">
         <is>
           <t>055</t>
         </is>
       </c>
-      <c r="B52" s="2" t="n">
+      <c r="B52" s="5" t="n">
         <v>784</v>
       </c>
-      <c r="C52" s="2" t="n">
+      <c r="C52" s="5" t="n">
         <v>324</v>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" s="5" t="n">
         <v>1062</v>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="E52" s="5" t="n">
         <v>367</v>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" s="8" t="inlineStr">
         <is>
           <t>055</t>
         </is>
       </c>
-      <c r="G52" s="2" t="inlineStr">
+      <c r="G52" s="5" t="inlineStr">
         <is>
           <t>room close dialog - title</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="A53" s="8" t="inlineStr">
         <is>
           <t>056</t>
         </is>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B53" s="5" t="n">
         <v>877</v>
       </c>
-      <c r="C53" s="2" t="n">
+      <c r="C53" s="5" t="n">
         <v>677</v>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" s="5" t="n">
         <v>975</v>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="5" t="n">
         <v>724</v>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" s="8" t="inlineStr">
         <is>
           <t>037</t>
         </is>
       </c>
-      <c r="G53" s="2" t="inlineStr">
+      <c r="G53" s="5" t="inlineStr">
         <is>
           <t>ok button - room closed dialog</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+      <c r="A54" s="8" t="inlineStr">
         <is>
           <t>057</t>
         </is>
       </c>
-      <c r="B54" s="2" t="n">
+      <c r="B54" s="5" t="n">
         <v>716</v>
       </c>
-      <c r="C54" s="2" t="n">
+      <c r="C54" s="5" t="n">
         <v>277</v>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" s="5" t="n">
         <v>795</v>
       </c>
-      <c r="E54" s="2" t="n">
+      <c r="E54" s="5" t="n">
         <v>312</v>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" s="8" t="inlineStr">
         <is>
           <t>057</t>
         </is>
       </c>
-      <c r="G54" s="2" t="inlineStr">
+      <c r="G54" s="5" t="inlineStr">
         <is>
           <t>difficulty</t>
         </is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1400</v>
+        <v>1405</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F7" s="8" t="inlineStr">
         <is>
@@ -1960,16 +1960,16 @@
         </is>
       </c>
       <c r="B54" s="5" t="n">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F54" s="8" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1960,16 +1960,16 @@
         </is>
       </c>
       <c r="B54" s="5" t="n">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>800</v>
+        <v>836</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F54" s="8" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1078,16 +1078,16 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>362</v>
+        <v>302</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
@@ -2035,16 +2035,16 @@
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>718</v>
+        <v>1546</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>832</v>
+        <v>1647</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1049,16 +1049,16 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>992</v>
+        <v>957</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1261</v>
+        <v>1058</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -377,10 +377,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -392,8 +392,8 @@
     <col width="15" customWidth="1" style="2" min="5" max="5"/>
     <col width="15" customWidth="1" style="1" min="6" max="6"/>
     <col width="62.21875" customWidth="1" style="2" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="2" min="8" max="23"/>
-    <col width="8.88671875" customWidth="1" style="2" min="24" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="2" min="8" max="24"/>
+    <col width="8.88671875" customWidth="1" style="2" min="25" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2054,6 +2054,30 @@
       <c r="G57" s="2" t="inlineStr">
         <is>
           <t>difficulty extreme</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>061</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>262</v>
+      </c>
+      <c r="C58" t="n">
+        <v>843</v>
+      </c>
+      <c r="D58" t="n">
+        <v>343</v>
+      </c>
+      <c r="E58" t="n">
+        <v>917</v>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>event match -&gt; to event exchange shop</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3B8FAE-15EE-4D06-8BCD-E850389B10EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95D1401-01A4-438A-A9A1-951FB4EF16E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="127">
   <si>
     <t>Template Number</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>event match -&gt; to event exchange shop</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>after match -&gt; shared play reward</t>
   </si>
   <si>
     <t>Location Number</t>
@@ -767,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C51" sqref="A1:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,8 +788,8 @@
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="62.21875" style="2" customWidth="1"/>
-    <col min="8" max="25" width="8.88671875" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="8" max="26" width="8.88671875" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2118,6 +2124,29 @@
       </c>
       <c r="G58" s="2" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="2">
+        <v>772</v>
+      </c>
+      <c r="C59" s="2">
+        <v>107</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1077</v>
+      </c>
+      <c r="E59" s="2">
+        <v>146</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2144,13 +2173,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>6</v>
@@ -2167,7 +2196,7 @@
         <v>889</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -377,10 +377,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C51" sqref="A1:G59"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -392,8 +392,8 @@
     <col width="15" customWidth="1" style="2" min="5" max="5"/>
     <col width="15" customWidth="1" style="1" min="6" max="6"/>
     <col width="62.21875" customWidth="1" style="2" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="2" min="8" max="26"/>
-    <col width="8.88671875" customWidth="1" style="2" min="27" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="2" min="8" max="27"/>
+    <col width="8.88671875" customWidth="1" style="2" min="28" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2112,6 +2112,35 @@
       <c r="G59" s="2" t="inlineStr">
         <is>
           <t>after match -&gt; shared play reward</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>063</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>817</v>
+      </c>
+      <c r="C60" t="n">
+        <v>502</v>
+      </c>
+      <c r="D60" t="n">
+        <v>934</v>
+      </c>
+      <c r="E60" t="n">
+        <v>603</v>
+      </c>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <t>063</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>recruitglobal share play</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ECB3B1-7634-4475-B4C4-16B03BB438CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C4FFEE-8B9A-4048-BC6D-A687B668D949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Templates" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="150">
   <si>
     <t>Template Number</t>
   </si>
@@ -395,6 +395,9 @@
     <t>063</t>
   </si>
   <si>
+    <t>recruit global share play</t>
+  </si>
+  <si>
     <t>064</t>
   </si>
   <si>
@@ -449,6 +452,12 @@
     <t>ad viewing interrupted dialog -&gt; ok button</t>
   </si>
   <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>now loading on recruit game -&gt; it means app is freezed</t>
+  </si>
+  <si>
     <t>Location Number</t>
   </si>
   <si>
@@ -461,7 +470,7 @@
     <t>scroll right ro end</t>
   </si>
   <si>
-    <t>recruit global share play</t>
+    <t>close app</t>
   </si>
 </sst>
 </file>
@@ -833,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -848,8 +857,8 @@
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
     <col min="6" max="6" width="15" style="3" customWidth="1"/>
     <col min="7" max="7" width="62.21875" style="4" customWidth="1"/>
-    <col min="8" max="36" width="8.88671875" style="4" customWidth="1"/>
-    <col min="37" max="16384" width="8.88671875" style="4"/>
+    <col min="8" max="37" width="8.88671875" style="4" customWidth="1"/>
+    <col min="38" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2229,12 +2238,12 @@
         <v>123</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B61" s="4">
         <v>589</v>
@@ -2249,15 +2258,15 @@
         <v>372</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B62" s="4">
         <v>1053</v>
@@ -2272,15 +2281,15 @@
         <v>733</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B63" s="4">
         <v>1243</v>
@@ -2295,15 +2304,15 @@
         <v>890</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B64" s="4">
         <v>1698</v>
@@ -2318,15 +2327,15 @@
         <v>142</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B65" s="4">
         <v>687</v>
@@ -2341,15 +2350,15 @@
         <v>749</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B66" s="4">
         <v>714</v>
@@ -2364,15 +2373,15 @@
         <v>374</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B67" s="4">
         <v>864</v>
@@ -2387,15 +2396,15 @@
         <v>731</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B68" s="4">
         <v>658</v>
@@ -2410,15 +2419,15 @@
         <v>369</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B69" s="4">
         <v>877</v>
@@ -2436,21 +2445,44 @@
         <v>73</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1311</v>
+      </c>
+      <c r="C70" s="4">
+        <v>966</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1528</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1001</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2463,13 +2495,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -2486,7 +2518,21 @@
         <v>889</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4">
+        <v>645</v>
+      </c>
+      <c r="C3" s="4">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD993FC3-A6B2-4CA3-93D0-6ADAA96057C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7AEECC-6FEB-4FF5-9388-DD3D892FFB93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="158">
   <si>
     <t>Template Number</t>
   </si>
@@ -462,6 +462,24 @@
   </si>
   <si>
     <t>home</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shared play - preparing </t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>confirm cancel dialog - title</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>confirm cancel dialog - ok button</t>
   </si>
   <si>
     <t>Location Number</t>
@@ -848,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C66" sqref="A1:G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -863,8 +881,8 @@
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
     <col min="6" max="6" width="15" style="3" customWidth="1"/>
     <col min="7" max="7" width="62.21875" style="4" customWidth="1"/>
-    <col min="8" max="39" width="8.88671875" style="4" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="4"/>
+    <col min="8" max="40" width="8.88671875" style="4" customWidth="1"/>
+    <col min="41" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2498,6 +2516,75 @@
       </c>
       <c r="G71" s="4" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1273</v>
+      </c>
+      <c r="C72" s="4">
+        <v>838</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1518</v>
+      </c>
+      <c r="E72" s="4">
+        <v>903</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" s="4">
+        <v>743</v>
+      </c>
+      <c r="C73" s="4">
+        <v>321</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1103</v>
+      </c>
+      <c r="E73" s="4">
+        <v>373</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="4">
+        <v>1080</v>
+      </c>
+      <c r="C74" s="4">
+        <v>678</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1178</v>
+      </c>
+      <c r="E74" s="4">
+        <v>725</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2524,13 +2611,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -2547,7 +2634,7 @@
         <v>889</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2561,7 +2648,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7AEECC-6FEB-4FF5-9388-DD3D892FFB93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51878792-B830-4F78-B7D6-4C44C3645373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="162">
   <si>
     <t>Template Number</t>
   </si>
@@ -480,6 +480,18 @@
   </si>
   <si>
     <t>confirm cancel dialog - ok button</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>shared play - confirm change screen - title</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>confirm change screen - cancel button</t>
   </si>
   <si>
     <t>Location Number</t>
@@ -866,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C66" sqref="A1:G74"/>
+      <selection activeCell="C68" sqref="A1:G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,8 +893,8 @@
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
     <col min="6" max="6" width="15" style="3" customWidth="1"/>
     <col min="7" max="7" width="62.21875" style="4" customWidth="1"/>
-    <col min="8" max="40" width="8.88671875" style="4" customWidth="1"/>
-    <col min="41" max="16384" width="8.88671875" style="4"/>
+    <col min="8" max="42" width="8.88671875" style="4" customWidth="1"/>
+    <col min="43" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2585,6 +2597,52 @@
       </c>
       <c r="G74" s="4" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="4">
+        <v>646</v>
+      </c>
+      <c r="C75" s="4">
+        <v>323</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1195</v>
+      </c>
+      <c r="E75" s="4">
+        <v>370</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" s="4">
+        <v>628</v>
+      </c>
+      <c r="C76" s="4">
+        <v>681</v>
+      </c>
+      <c r="D76" s="4">
+        <v>810</v>
+      </c>
+      <c r="E76" s="4">
+        <v>728</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2611,13 +2669,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -2634,7 +2692,7 @@
         <v>889</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2648,7 +2706,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1078,16 +1078,16 @@
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>302</v>
+        <v>372</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>537</v>
+        <v>591</v>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>383</v>
+        <v>289</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>365</v>
+        <v>236</v>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>1341</v>
+        <v>1303</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>490</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>1435</v>
+        <v>1397</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>591</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Templates" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Points" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Templates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -52,27 +52,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -385,15 +385,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="21.5546875"/>
-    <col customWidth="1" max="2" min="2" style="4" width="12.88671875"/>
-    <col customWidth="1" max="3" min="3" style="4" width="14.77734375"/>
-    <col customWidth="1" max="4" min="4" style="4" width="13.77734375"/>
-    <col customWidth="1" max="5" min="5" style="4" width="15"/>
-    <col customWidth="1" max="6" min="6" style="3" width="15"/>
-    <col customWidth="1" max="7" min="7" style="4" width="62.21875"/>
-    <col customWidth="1" max="46" min="8" style="4" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="47" style="4" width="8.88671875"/>
+    <col width="21.5546875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="12.88671875" customWidth="1" style="4" min="2" max="2"/>
+    <col width="14.77734375" customWidth="1" style="4" min="3" max="3"/>
+    <col width="13.77734375" customWidth="1" style="4" min="4" max="4"/>
+    <col width="15" customWidth="1" style="4" min="5" max="5"/>
+    <col width="15" customWidth="1" style="3" min="6" max="6"/>
+    <col width="62.21875" customWidth="1" style="4" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="4" min="8" max="46"/>
+    <col width="8.88671875" customWidth="1" style="4" min="47" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="B78" s="4" t="n">
-        <v>835</v>
+        <v>807</v>
       </c>
       <c r="C78" s="4" t="n">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>
@@ -2725,8 +2725,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2744,10 +2744,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="17"/>
-    <col customWidth="1" max="2" min="2" style="4" width="16.44140625"/>
-    <col customWidth="1" max="3" min="3" style="4" width="19.5546875"/>
-    <col customWidth="1" max="4" min="4" style="4" width="49.6640625"/>
+    <col width="17" customWidth="1" style="3" min="1" max="1"/>
+    <col width="16.44140625" customWidth="1" style="4" min="2" max="2"/>
+    <col width="19.5546875" customWidth="1" style="4" min="3" max="3"/>
+    <col width="49.6640625" customWidth="1" style="4" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2809,7 +2809,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="B78" s="4" t="n">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C78" s="4" t="n">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>908</v>
+        <v>925</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>648</v>
+        <v>674</v>
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="B78" s="4" t="n">
-        <v>806</v>
+        <v>834</v>
       </c>
       <c r="C78" s="4" t="n">
-        <v>574</v>
+        <v>599</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>925</v>
+        <v>907</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>674</v>
+        <v>645</v>
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="B23" s="4" t="n">
-        <v>957</v>
+        <v>1060</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>437</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>1058</v>
+        <v>1161</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>487</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Templates" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Templates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Points" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -52,27 +52,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -385,15 +385,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="21.5546875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="12.88671875" customWidth="1" style="4" min="2" max="2"/>
-    <col width="14.77734375" customWidth="1" style="4" min="3" max="3"/>
-    <col width="13.77734375" customWidth="1" style="4" min="4" max="4"/>
-    <col width="15" customWidth="1" style="4" min="5" max="5"/>
-    <col width="15" customWidth="1" style="3" min="6" max="6"/>
-    <col width="62.21875" customWidth="1" style="4" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="4" min="8" max="54"/>
-    <col width="8.88671875" customWidth="1" style="4" min="55" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="3" width="21.5546875"/>
+    <col customWidth="1" max="2" min="2" style="4" width="12.88671875"/>
+    <col customWidth="1" max="3" min="3" style="4" width="14.77734375"/>
+    <col customWidth="1" max="4" min="4" style="4" width="13.77734375"/>
+    <col customWidth="1" max="5" min="5" style="4" width="15"/>
+    <col customWidth="1" max="6" min="6" style="3" width="15"/>
+    <col customWidth="1" max="7" min="7" style="4" width="62.21875"/>
+    <col customWidth="1" max="54" min="8" style="4" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="55" style="4" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -469,16 +469,16 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>741</v>
+        <v>667</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>528</v>
+        <v>621</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>824</v>
+        <v>855</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>566</v>
+        <v>728</v>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
@@ -501,13 +501,13 @@
         <v>1082</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1410</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
@@ -1078,16 +1078,16 @@
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>556</v>
+        <v>605</v>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
@@ -2035,13 +2035,13 @@
         </is>
       </c>
       <c r="B57" s="4" t="n">
-        <v>1546</v>
+        <v>768</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>280</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1647</v>
+        <v>869</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>322</v>
@@ -2870,8 +2870,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2889,10 +2889,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="17" customWidth="1" style="3" min="1" max="1"/>
-    <col width="16.44140625" customWidth="1" style="4" min="2" max="2"/>
-    <col width="19.5546875" customWidth="1" style="4" min="3" max="3"/>
-    <col width="49.6640625" customWidth="1" style="4" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" style="3" width="17"/>
+    <col customWidth="1" max="2" min="2" style="4" width="16.44140625"/>
+    <col customWidth="1" max="3" min="3" style="4" width="19.5546875"/>
+    <col customWidth="1" max="4" min="4" style="4" width="49.6640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2954,7 +2954,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1165,16 +1165,16 @@
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>864</v>
+        <v>887</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>927</v>
+        <v>950</v>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>233</v>
+        <v>746</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>527</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>417</v>
+        <v>930</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>605</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Templates" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Points" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Templates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -52,27 +52,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -385,15 +385,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="21.5546875"/>
-    <col customWidth="1" max="2" min="2" style="4" width="12.88671875"/>
-    <col customWidth="1" max="3" min="3" style="4" width="14.77734375"/>
-    <col customWidth="1" max="4" min="4" style="4" width="13.77734375"/>
-    <col customWidth="1" max="5" min="5" style="4" width="15"/>
-    <col customWidth="1" max="6" min="6" style="3" width="15"/>
-    <col customWidth="1" max="7" min="7" style="4" width="62.21875"/>
-    <col customWidth="1" max="54" min="8" style="4" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="55" style="4" width="8.88671875"/>
+    <col width="21.5546875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="12.88671875" customWidth="1" style="4" min="2" max="2"/>
+    <col width="14.77734375" customWidth="1" style="4" min="3" max="3"/>
+    <col width="13.77734375" customWidth="1" style="4" min="4" max="4"/>
+    <col width="15" customWidth="1" style="4" min="5" max="5"/>
+    <col width="15" customWidth="1" style="3" min="6" max="6"/>
+    <col width="62.21875" customWidth="1" style="4" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="4" min="8" max="54"/>
+    <col width="8.88671875" customWidth="1" style="4" min="55" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -617,13 +617,13 @@
         <v>1385</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>851</v>
+        <v>874</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>1661</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>889</v>
+        <v>912</v>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
@@ -2870,8 +2870,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2889,10 +2889,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="17"/>
-    <col customWidth="1" max="2" min="2" style="4" width="16.44140625"/>
-    <col customWidth="1" max="3" min="3" style="4" width="19.5546875"/>
-    <col customWidth="1" max="4" min="4" style="4" width="49.6640625"/>
+    <col width="17" customWidth="1" style="3" min="1" max="1"/>
+    <col width="16.44140625" customWidth="1" style="4" min="2" max="2"/>
+    <col width="19.5546875" customWidth="1" style="4" min="3" max="3"/>
+    <col width="49.6640625" customWidth="1" style="4" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2954,7 +2954,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Templates" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Templates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Points" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -52,27 +52,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -385,15 +385,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="21.5546875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="12.88671875" customWidth="1" style="4" min="2" max="2"/>
-    <col width="14.77734375" customWidth="1" style="4" min="3" max="3"/>
-    <col width="13.77734375" customWidth="1" style="4" min="4" max="4"/>
-    <col width="15" customWidth="1" style="4" min="5" max="5"/>
-    <col width="15" customWidth="1" style="3" min="6" max="6"/>
-    <col width="62.21875" customWidth="1" style="4" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="4" min="8" max="54"/>
-    <col width="8.88671875" customWidth="1" style="4" min="55" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="3" width="21.5546875"/>
+    <col customWidth="1" max="2" min="2" style="4" width="12.88671875"/>
+    <col customWidth="1" max="3" min="3" style="4" width="14.77734375"/>
+    <col customWidth="1" max="4" min="4" style="4" width="13.77734375"/>
+    <col customWidth="1" max="5" min="5" style="4" width="15"/>
+    <col customWidth="1" max="6" min="6" style="3" width="15"/>
+    <col customWidth="1" max="7" min="7" style="4" width="62.21875"/>
+    <col customWidth="1" max="54" min="8" style="4" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="55" style="4" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>746</v>
+        <v>1258</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>527</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>930</v>
+        <v>1442</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>605</v>
@@ -2870,8 +2870,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2889,10 +2889,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="17" customWidth="1" style="3" min="1" max="1"/>
-    <col width="16.44140625" customWidth="1" style="4" min="2" max="2"/>
-    <col width="19.5546875" customWidth="1" style="4" min="3" max="3"/>
-    <col width="49.6640625" customWidth="1" style="4" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" style="3" width="17"/>
+    <col customWidth="1" max="2" min="2" style="4" width="16.44140625"/>
+    <col customWidth="1" max="3" min="3" style="4" width="19.5546875"/>
+    <col customWidth="1" max="4" min="4" style="4" width="49.6640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2954,7 +2954,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Templates" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Points" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Templates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -52,27 +52,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -385,15 +385,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="21.5546875"/>
-    <col customWidth="1" max="2" min="2" style="4" width="12.88671875"/>
-    <col customWidth="1" max="3" min="3" style="4" width="14.77734375"/>
-    <col customWidth="1" max="4" min="4" style="4" width="13.77734375"/>
-    <col customWidth="1" max="5" min="5" style="4" width="15"/>
-    <col customWidth="1" max="6" min="6" style="3" width="15"/>
-    <col customWidth="1" max="7" min="7" style="4" width="62.21875"/>
-    <col customWidth="1" max="56" min="8" style="4" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="57" style="4" width="8.88671875"/>
+    <col width="21.5546875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="12.88671875" customWidth="1" style="4" min="2" max="2"/>
+    <col width="14.77734375" customWidth="1" style="4" min="3" max="3"/>
+    <col width="13.77734375" customWidth="1" style="4" min="4" max="4"/>
+    <col width="15" customWidth="1" style="4" min="5" max="5"/>
+    <col width="15" customWidth="1" style="3" min="6" max="6"/>
+    <col width="62.21875" customWidth="1" style="4" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="4" min="8" max="56"/>
+    <col width="8.88671875" customWidth="1" style="4" min="57" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B56" s="4" t="n">
-        <v>1237</v>
+        <v>721</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>274</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1351</v>
+        <v>909</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
@@ -2899,8 +2899,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2918,10 +2918,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="17"/>
-    <col customWidth="1" max="2" min="2" style="4" width="16.44140625"/>
-    <col customWidth="1" max="3" min="3" style="4" width="19.5546875"/>
-    <col customWidth="1" max="4" min="4" style="4" width="49.6640625"/>
+    <col width="17" customWidth="1" style="3" min="1" max="1"/>
+    <col width="16.44140625" customWidth="1" style="4" min="2" max="2"/>
+    <col width="19.5546875" customWidth="1" style="4" min="3" max="3"/>
+    <col width="49.6640625" customWidth="1" style="4" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2983,7 +2983,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Templates" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Templates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Points" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -52,27 +52,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -385,15 +385,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="21.5546875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="12.88671875" customWidth="1" style="4" min="2" max="2"/>
-    <col width="14.77734375" customWidth="1" style="4" min="3" max="3"/>
-    <col width="13.77734375" customWidth="1" style="4" min="4" max="4"/>
-    <col width="15" customWidth="1" style="4" min="5" max="5"/>
-    <col width="15" customWidth="1" style="3" min="6" max="6"/>
-    <col width="62.21875" customWidth="1" style="4" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="4" min="8" max="56"/>
-    <col width="8.88671875" customWidth="1" style="4" min="57" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="3" width="21.5546875"/>
+    <col customWidth="1" max="2" min="2" style="4" width="12.88671875"/>
+    <col customWidth="1" max="3" min="3" style="4" width="14.77734375"/>
+    <col customWidth="1" max="4" min="4" style="4" width="13.77734375"/>
+    <col customWidth="1" max="5" min="5" style="4" width="15"/>
+    <col customWidth="1" max="6" min="6" style="3" width="15"/>
+    <col customWidth="1" max="7" min="7" style="4" width="62.21875"/>
+    <col customWidth="1" max="56" min="8" style="4" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="57" style="4" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="B23" s="4" t="n">
-        <v>1060</v>
+        <v>957</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>437</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>1161</v>
+        <v>1058</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>487</v>
@@ -1078,16 +1078,16 @@
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>1258</v>
+        <v>220</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>527</v>
+        <v>275</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>1442</v>
+        <v>393</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>605</v>
+        <v>354</v>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
@@ -2035,13 +2035,13 @@
         </is>
       </c>
       <c r="B57" s="4" t="n">
-        <v>768</v>
+        <v>1546</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>280</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>869</v>
+        <v>1647</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>322</v>
@@ -2899,8 +2899,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2918,10 +2918,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="17" customWidth="1" style="3" min="1" max="1"/>
-    <col width="16.44140625" customWidth="1" style="4" min="2" max="2"/>
-    <col width="19.5546875" customWidth="1" style="4" min="3" max="3"/>
-    <col width="49.6640625" customWidth="1" style="4" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" style="3" width="17"/>
+    <col customWidth="1" max="2" min="2" style="4" width="16.44140625"/>
+    <col customWidth="1" max="3" min="3" style="4" width="19.5546875"/>
+    <col customWidth="1" max="4" min="4" style="4" width="49.6640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2983,7 +2983,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Templates" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Points" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Templates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -52,27 +52,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -385,15 +385,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="21.5546875"/>
-    <col customWidth="1" max="2" min="2" style="4" width="12.88671875"/>
-    <col customWidth="1" max="3" min="3" style="4" width="14.77734375"/>
-    <col customWidth="1" max="4" min="4" style="4" width="13.77734375"/>
-    <col customWidth="1" max="5" min="5" style="4" width="15"/>
-    <col customWidth="1" max="6" min="6" style="3" width="15"/>
-    <col customWidth="1" max="7" min="7" style="4" width="62.21875"/>
-    <col customWidth="1" max="56" min="8" style="4" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="57" style="4" width="8.88671875"/>
+    <col width="21.5546875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="12.88671875" customWidth="1" style="4" min="2" max="2"/>
+    <col width="14.77734375" customWidth="1" style="4" min="3" max="3"/>
+    <col width="13.77734375" customWidth="1" style="4" min="4" max="4"/>
+    <col width="15" customWidth="1" style="4" min="5" max="5"/>
+    <col width="15" customWidth="1" style="3" min="6" max="6"/>
+    <col width="62.21875" customWidth="1" style="4" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="4" min="8" max="56"/>
+    <col width="8.88671875" customWidth="1" style="4" min="57" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>389</v>
+        <v>322</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
@@ -2899,8 +2899,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2918,10 +2918,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="17"/>
-    <col customWidth="1" max="2" min="2" style="4" width="16.44140625"/>
-    <col customWidth="1" max="3" min="3" style="4" width="19.5546875"/>
-    <col customWidth="1" max="4" min="4" style="4" width="49.6640625"/>
+    <col width="17" customWidth="1" style="3" min="1" max="1"/>
+    <col width="16.44140625" customWidth="1" style="4" min="2" max="2"/>
+    <col width="19.5546875" customWidth="1" style="4" min="3" max="3"/>
+    <col width="49.6640625" customWidth="1" style="4" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2983,7 +2983,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -377,10 +377,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D79" sqref="A1:G86"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -392,8 +392,8 @@
     <col width="15" customWidth="1" style="4" min="5" max="5"/>
     <col width="15" customWidth="1" style="3" min="6" max="6"/>
     <col width="62.21875" customWidth="1" style="4" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="4" min="8" max="56"/>
-    <col width="8.88671875" customWidth="1" style="4" min="57" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="4" min="8" max="57"/>
+    <col width="8.88671875" customWidth="1" style="4" min="58" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2895,6 +2895,35 @@
       <c r="G86" s="4" t="inlineStr">
         <is>
           <t>play type -&gt; cancel button</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>451</v>
+      </c>
+      <c r="C87" t="n">
+        <v>826</v>
+      </c>
+      <c r="D87" t="n">
+        <v>635</v>
+      </c>
+      <c r="E87" t="n">
+        <v>901</v>
+      </c>
+      <c r="F87" s="3" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="G87" s="4" t="inlineStr">
+        <is>
+          <t>recover energy - cancel button</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Templates" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Templates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Points" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -52,27 +52,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -385,15 +385,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="21.5546875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="12.88671875" customWidth="1" style="4" min="2" max="2"/>
-    <col width="14.77734375" customWidth="1" style="4" min="3" max="3"/>
-    <col width="13.77734375" customWidth="1" style="4" min="4" max="4"/>
-    <col width="15" customWidth="1" style="4" min="5" max="5"/>
-    <col width="15" customWidth="1" style="3" min="6" max="6"/>
-    <col width="62.21875" customWidth="1" style="4" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="4" min="8" max="57"/>
-    <col width="8.88671875" customWidth="1" style="4" min="58" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="3" width="21.5546875"/>
+    <col customWidth="1" max="2" min="2" style="4" width="12.88671875"/>
+    <col customWidth="1" max="3" min="3" style="4" width="14.77734375"/>
+    <col customWidth="1" max="4" min="4" style="4" width="13.77734375"/>
+    <col customWidth="1" max="5" min="5" style="4" width="15"/>
+    <col customWidth="1" max="6" min="6" style="3" width="15"/>
+    <col customWidth="1" max="7" min="7" style="4" width="62.21875"/>
+    <col customWidth="1" max="57" min="8" style="4" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="58" style="4" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>755</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>394</v>
+        <v>498</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>796</v>
@@ -2928,8 +2928,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2947,10 +2947,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="17" customWidth="1" style="3" min="1" max="1"/>
-    <col width="16.44140625" customWidth="1" style="4" min="2" max="2"/>
-    <col width="19.5546875" customWidth="1" style="4" min="3" max="3"/>
-    <col width="49.6640625" customWidth="1" style="4" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" style="3" width="17"/>
+    <col customWidth="1" max="2" min="2" style="4" width="16.44140625"/>
+    <col customWidth="1" max="3" min="3" style="4" width="19.5546875"/>
+    <col customWidth="1" max="4" min="4" style="4" width="49.6640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3012,7 +3012,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1078,16 +1078,16 @@
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>220</v>
+        <v>732</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>393</v>
+        <v>905</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EF1251-BF26-4616-94C0-E384E88FE7AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BED57EC-0B11-484B-84D3-7FB17B228BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -983,7 +983,7 @@
   <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B86" sqref="A1:G94"/>
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,8 +995,8 @@
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
     <col min="6" max="6" width="15" style="3" customWidth="1"/>
     <col min="7" max="7" width="62.21875" style="4" customWidth="1"/>
-    <col min="8" max="65" width="8.88671875" style="4" customWidth="1"/>
-    <col min="66" max="16384" width="8.88671875" style="4"/>
+    <col min="8" max="66" width="8.88671875" style="4" customWidth="1"/>
+    <col min="67" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053756DA-F755-4323-9F2F-6CBB012AA114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F262A9-4C3D-4029-97A2-E2F6F40C784C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="196">
   <si>
     <t>Template Number</t>
   </si>
@@ -594,12 +594,6 @@
   </si>
   <si>
     <t>very hard - unplayed</t>
-  </si>
-  <si>
-    <t>098</t>
-  </si>
-  <si>
-    <t>play match button - with skip button but unplayed -&gt; farm story mode</t>
   </si>
   <si>
     <t>Location Number</t>
@@ -986,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+      <selection activeCell="A95" sqref="A95:XFD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3165,29 +3159,6 @@
       </c>
       <c r="G94" s="4" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B95" s="4">
-        <v>1395</v>
-      </c>
-      <c r="C95" s="4">
-        <v>864</v>
-      </c>
-      <c r="D95" s="4">
-        <v>1660</v>
-      </c>
-      <c r="E95" s="4">
-        <v>925</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3214,13 +3185,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -3237,7 +3208,7 @@
         <v>889</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3251,7 +3222,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F262A9-4C3D-4029-97A2-E2F6F40C784C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3304CDC7-36CA-441A-B0EC-2E9CFAB7A7C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="198">
   <si>
     <t>Template Number</t>
   </si>
@@ -594,6 +594,12 @@
   </si>
   <si>
     <t>very hard - unplayed</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>dreamball -&gt; after match</t>
   </si>
   <si>
     <t>Location Number</t>
@@ -980,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:XFD95"/>
+      <selection activeCell="A95" sqref="A1:G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,8 +1001,8 @@
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
     <col min="6" max="6" width="15" style="3" customWidth="1"/>
     <col min="7" max="7" width="62.21875" style="4" customWidth="1"/>
-    <col min="8" max="68" width="8.88671875" style="4" customWidth="1"/>
-    <col min="69" max="16384" width="8.88671875" style="4"/>
+    <col min="8" max="69" width="8.88671875" style="4" customWidth="1"/>
+    <col min="70" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -3159,6 +3165,26 @@
       </c>
       <c r="G94" s="4" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="4">
+        <v>850</v>
+      </c>
+      <c r="C95" s="4">
+        <v>375</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1003</v>
+      </c>
+      <c r="E95" s="4">
+        <v>523</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3185,13 +3211,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -3208,7 +3234,7 @@
         <v>889</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3222,7 +3248,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3304CDC7-36CA-441A-B0EC-2E9CFAB7A7C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDAE1DD-B7CD-4586-8C95-B6778F03F42E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="198">
   <si>
     <t>Template Number</t>
   </si>
@@ -989,7 +989,7 @@
   <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A95" sqref="A1:G95"/>
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3182,6 +3182,9 @@
       </c>
       <c r="E95" s="4">
         <v>523</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>192</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDAE1DD-B7CD-4586-8C95-B6778F03F42E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E283E7B6-B8E5-47C4-A821-E836C4632733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="200">
   <si>
     <t>Template Number</t>
   </si>
@@ -600,6 +600,12 @@
   </si>
   <si>
     <t>dreamball -&gt; after match</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>hard button - use to get start point of scroll</t>
   </si>
   <si>
     <t>Location Number</t>
@@ -986,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G96" sqref="A1:G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,8 +1007,8 @@
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
     <col min="6" max="6" width="15" style="3" customWidth="1"/>
     <col min="7" max="7" width="62.21875" style="4" customWidth="1"/>
-    <col min="8" max="69" width="8.88671875" style="4" customWidth="1"/>
-    <col min="70" max="16384" width="8.88671875" style="4"/>
+    <col min="8" max="71" width="8.88671875" style="4" customWidth="1"/>
+    <col min="72" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -3188,6 +3194,29 @@
       </c>
       <c r="G95" s="4" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="4">
+        <v>0</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3214,13 +3243,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -3237,7 +3266,7 @@
         <v>889</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3251,7 +3280,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B56" s="4" t="n">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>909</v>
+        <v>0</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B56" s="4" t="n">
-        <v>0</v>
+        <v>1240</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>0</v>
+        <v>1428</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1078,16 +1078,16 @@
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>732</v>
+        <v>203</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>276</v>
+        <v>520</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>905</v>
+        <v>381</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>355</v>
+        <v>600</v>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36F86BC-6311-4172-B879-224A4FC50CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17538F44-250D-45F3-BA9C-27186FC575E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="210">
   <si>
     <t>Template Number</t>
   </si>
@@ -618,6 +618,24 @@
   </si>
   <si>
     <t>team power boost skip button</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>league mode</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>play match -&gt; league mode</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>total power -&gt; league mode -&gt; team select</t>
   </si>
   <si>
     <t>Location Number</t>
@@ -1004,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C89" sqref="A1:G98"/>
+      <selection activeCell="C99" sqref="A1:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1019,8 +1037,8 @@
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
     <col min="6" max="6" width="15" style="3" customWidth="1"/>
     <col min="7" max="7" width="62.21875" style="4" customWidth="1"/>
-    <col min="8" max="73" width="8.88671875" style="4" customWidth="1"/>
-    <col min="74" max="16384" width="8.88671875" style="4"/>
+    <col min="8" max="74" width="8.88671875" style="4" customWidth="1"/>
+    <col min="75" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -3275,6 +3293,75 @@
       </c>
       <c r="G98" s="4" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="4">
+        <v>1005</v>
+      </c>
+      <c r="C99" s="4">
+        <v>722</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1395</v>
+      </c>
+      <c r="E99" s="4">
+        <v>779</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="4">
+        <v>1365</v>
+      </c>
+      <c r="C100" s="4">
+        <v>854</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1744</v>
+      </c>
+      <c r="E100" s="4">
+        <v>911</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="4">
+        <v>1195</v>
+      </c>
+      <c r="C101" s="4">
+        <v>578</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1390</v>
+      </c>
+      <c r="E101" s="4">
+        <v>631</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3301,13 +3388,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -3324,7 +3411,7 @@
         <v>889</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3338,7 +3425,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\captaintsubasapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17538F44-250D-45F3-BA9C-27186FC575E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EC77E5-5AC9-494A-8921-FD4C3E5FEA01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="216">
   <si>
     <t>Template Number</t>
   </si>
@@ -636,6 +636,24 @@
   </si>
   <si>
     <t>total power -&gt; league mode -&gt; team select</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>half time stamina recovery +30% -&gt; league mode</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>stamina consumed -20% -&gt; league mode</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>kick off -&gt; league mode</t>
   </si>
   <si>
     <t>Location Number</t>
@@ -1022,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C99" sqref="A1:G101"/>
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,8 +1055,8 @@
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
     <col min="6" max="6" width="15" style="3" customWidth="1"/>
     <col min="7" max="7" width="62.21875" style="4" customWidth="1"/>
-    <col min="8" max="74" width="8.88671875" style="4" customWidth="1"/>
-    <col min="75" max="16384" width="8.88671875" style="4"/>
+    <col min="8" max="75" width="8.88671875" style="4" customWidth="1"/>
+    <col min="76" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -3364,9 +3382,78 @@
         <v>204</v>
       </c>
     </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" s="4">
+        <v>368</v>
+      </c>
+      <c r="C102" s="4">
+        <v>736</v>
+      </c>
+      <c r="D102" s="4">
+        <v>504</v>
+      </c>
+      <c r="E102" s="4">
+        <v>856</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="4">
+        <v>718</v>
+      </c>
+      <c r="C103" s="4">
+        <v>736</v>
+      </c>
+      <c r="D103" s="4">
+        <v>854</v>
+      </c>
+      <c r="E103" s="4">
+        <v>856</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" s="4">
+        <v>1357</v>
+      </c>
+      <c r="C104" s="4">
+        <v>718</v>
+      </c>
+      <c r="D104" s="4">
+        <v>1708</v>
+      </c>
+      <c r="E104" s="4">
+        <v>828</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3388,13 +3475,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -3411,7 +3498,7 @@
         <v>889</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3425,7 +3512,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -377,10 +377,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -392,8 +392,8 @@
     <col width="15" customWidth="1" style="4" min="5" max="5"/>
     <col width="15" customWidth="1" style="3" min="6" max="6"/>
     <col width="62.21875" customWidth="1" style="4" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="4" min="8" max="75"/>
-    <col width="8.88671875" customWidth="1" style="4" min="76" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="4" min="8" max="76"/>
+    <col width="8.88671875" customWidth="1" style="4" min="77" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3417,6 +3417,35 @@
       <c r="G104" s="4" t="inlineStr">
         <is>
           <t>kick off -&gt; league mode</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>949</v>
+      </c>
+      <c r="C105" t="n">
+        <v>946</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1265</v>
+      </c>
+      <c r="E105" t="n">
+        <v>999</v>
+      </c>
+      <c r="F105" s="3" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="G105" s="4" t="inlineStr">
+        <is>
+          <t>after match -&gt; league home screen</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1078,16 +1078,16 @@
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>520</v>
+        <v>239</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>381</v>
+        <v>292</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>600</v>
+        <v>349</v>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
@@ -2064,16 +2064,16 @@
         </is>
       </c>
       <c r="B58" s="4" t="n">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>343</v>
+        <v>267</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+      <selection activeCell="A102" sqref="A1:G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -392,8 +392,8 @@
     <col width="15" customWidth="1" style="4" min="5" max="5"/>
     <col width="15" customWidth="1" style="3" min="6" max="6"/>
     <col width="62.21875" customWidth="1" style="4" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="4" min="8" max="76"/>
-    <col width="8.88671875" customWidth="1" style="4" min="77" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="4" min="8" max="77"/>
+    <col width="8.88671875" customWidth="1" style="4" min="78" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2035,13 +2035,13 @@
         </is>
       </c>
       <c r="B57" s="4" t="n">
-        <v>1546</v>
+        <v>1287</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>280</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1647</v>
+        <v>1388</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>322</v>
@@ -3426,16 +3426,16 @@
           <t>108</t>
         </is>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" s="4" t="n">
         <v>949</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" s="4" t="n">
         <v>946</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" s="4" t="n">
         <v>1265</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105" s="4" t="n">
         <v>999</v>
       </c>
       <c r="F105" s="3" t="inlineStr">

--- a/data.xlsx
+++ b/data.xlsx
@@ -377,10 +377,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A102" sqref="A1:G105"/>
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -392,8 +392,8 @@
     <col width="15" customWidth="1" style="4" min="5" max="5"/>
     <col width="15" customWidth="1" style="3" min="6" max="6"/>
     <col width="62.21875" customWidth="1" style="4" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="4" min="8" max="77"/>
-    <col width="8.88671875" customWidth="1" style="4" min="78" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="4" min="8" max="78"/>
+    <col width="8.88671875" customWidth="1" style="4" min="79" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3446,6 +3446,35 @@
       <c r="G105" s="4" t="inlineStr">
         <is>
           <t>after match -&gt; league home screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>477</v>
+      </c>
+      <c r="C106" t="n">
+        <v>681</v>
+      </c>
+      <c r="D106" t="n">
+        <v>961</v>
+      </c>
+      <c r="E106" t="n">
+        <v>744</v>
+      </c>
+      <c r="F106" s="3" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="G106" s="4" t="inlineStr">
+        <is>
+          <t>after match -&gt; rewards earned</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -377,10 +377,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -391,8 +391,8 @@
     <col width="13.77734375" customWidth="1" style="4" min="4" max="4"/>
     <col width="15" customWidth="1" style="4" min="5" max="5"/>
     <col width="62.21875" customWidth="1" style="4" min="6" max="6"/>
-    <col width="8.88671875" customWidth="1" style="4" min="7" max="84"/>
-    <col width="8.88671875" customWidth="1" style="4" min="85" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="4" min="7" max="85"/>
+    <col width="8.88671875" customWidth="1" style="4" min="86" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3304,6 +3304,54 @@
       <c r="F121" s="4" t="inlineStr">
         <is>
           <t>ok button in do you want to try again dialog in banner</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>501</v>
+      </c>
+      <c r="C122" t="n">
+        <v>322</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1349</v>
+      </c>
+      <c r="E122" t="n">
+        <v>370</v>
+      </c>
+      <c r="F122" s="4" t="inlineStr">
+        <is>
+          <t>you have already watched this story dialog -&gt; title</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>631</v>
+      </c>
+      <c r="C123" t="n">
+        <v>680</v>
+      </c>
+      <c r="D123" t="n">
+        <v>809</v>
+      </c>
+      <c r="E123" t="n">
+        <v>728</v>
+      </c>
+      <c r="F123" s="4" t="inlineStr">
+        <is>
+          <t>you have already watched this story dialog -&gt; cancel button</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -458,16 +458,16 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>667</v>
+        <v>227</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>621</v>
+        <v>222</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>855</v>
+        <v>736</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>728</v>
+        <v>478</v>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
@@ -962,16 +962,16 @@
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>239</v>
+        <v>454</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>292</v>
+        <v>431</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>349</v>
+        <v>634</v>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B58" s="4" t="n">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>829</v>
+        <v>843</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1754,13 +1754,13 @@
         </is>
       </c>
       <c r="B57" s="4" t="n">
-        <v>1287</v>
+        <v>1546</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>280</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1388</v>
+        <v>1647</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>322</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Templates" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Points" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Templates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -52,27 +52,95 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,14 +453,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="21.5546875"/>
-    <col customWidth="1" max="2" min="2" style="4" width="12.88671875"/>
-    <col customWidth="1" max="3" min="3" style="4" width="14.77734375"/>
-    <col customWidth="1" max="4" min="4" style="4" width="13.77734375"/>
-    <col customWidth="1" max="5" min="5" style="4" width="15"/>
-    <col customWidth="1" max="6" min="6" style="4" width="62.21875"/>
-    <col customWidth="1" max="86" min="7" style="4" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="87" style="4" width="8.88671875"/>
+    <col width="21.5546875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="12.88671875" customWidth="1" style="4" min="2" max="2"/>
+    <col width="14.77734375" customWidth="1" style="4" min="3" max="3"/>
+    <col width="13.77734375" customWidth="1" style="4" min="4" max="4"/>
+    <col width="15" customWidth="1" style="4" min="5" max="5"/>
+    <col width="62.21875" customWidth="1" style="4" min="6" max="6"/>
+    <col width="8.88671875" customWidth="1" style="4" min="7" max="86"/>
+    <col width="8.88671875" customWidth="1" style="4" min="87" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -962,13 +1030,13 @@
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>203</v>
+        <v>715</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>454</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>431</v>
+        <v>943</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>634</v>
@@ -3356,8 +3424,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -3375,10 +3443,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="17"/>
-    <col customWidth="1" max="2" min="2" style="4" width="16.44140625"/>
-    <col customWidth="1" max="3" min="3" style="4" width="19.5546875"/>
-    <col customWidth="1" max="4" min="4" style="4" width="49.6640625"/>
+    <col width="17" customWidth="1" style="3" min="1" max="1"/>
+    <col width="16.44140625" customWidth="1" style="4" min="2" max="2"/>
+    <col width="19.5546875" customWidth="1" style="4" min="3" max="3"/>
+    <col width="49.6640625" customWidth="1" style="4" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3440,7 +3508,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -445,10 +445,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D116" sqref="A1:F123"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="B124" sqref="A1:F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -459,8 +459,8 @@
     <col width="13.77734375" customWidth="1" style="4" min="4" max="4"/>
     <col width="15" customWidth="1" style="4" min="5" max="5"/>
     <col width="62.21875" customWidth="1" style="4" min="6" max="6"/>
-    <col width="8.88671875" customWidth="1" style="4" min="7" max="86"/>
-    <col width="8.88671875" customWidth="1" style="4" min="87" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="4" min="7" max="88"/>
+    <col width="8.88671875" customWidth="1" style="4" min="89" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3420,6 +3420,30 @@
       <c r="F123" s="4" t="inlineStr">
         <is>
           <t>you have already watched this story dialog -&gt; cancel button</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B124" s="4" t="n">
+        <v>1713</v>
+      </c>
+      <c r="C124" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="D124" s="4" t="n">
+        <v>1777</v>
+      </c>
+      <c r="E124" s="4" t="n">
+        <v>124</v>
+      </c>
+      <c r="F124" s="4" t="inlineStr">
+        <is>
+          <t>ad -&gt; close button type 3</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Templates" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Templates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Points" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -52,95 +52,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -445,22 +377,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="B124" sqref="A1:F124"/>
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="21.5546875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="12.88671875" customWidth="1" style="4" min="2" max="2"/>
-    <col width="14.77734375" customWidth="1" style="4" min="3" max="3"/>
-    <col width="13.77734375" customWidth="1" style="4" min="4" max="4"/>
-    <col width="15" customWidth="1" style="4" min="5" max="5"/>
-    <col width="62.21875" customWidth="1" style="4" min="6" max="6"/>
-    <col width="8.88671875" customWidth="1" style="4" min="7" max="88"/>
-    <col width="8.88671875" customWidth="1" style="4" min="89" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="3" width="21.5546875"/>
+    <col customWidth="1" max="2" min="2" style="4" width="12.88671875"/>
+    <col customWidth="1" max="3" min="3" style="4" width="14.77734375"/>
+    <col customWidth="1" max="4" min="4" style="4" width="13.77734375"/>
+    <col customWidth="1" max="5" min="5" style="4" width="15"/>
+    <col customWidth="1" max="6" min="6" style="4" width="62.21875"/>
+    <col customWidth="1" max="89" min="7" style="4" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="90" style="4" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3447,9 +3379,33 @@
         </is>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="B125" s="4" t="n">
+        <v>1615</v>
+      </c>
+      <c r="C125" s="4" t="n">
+        <v>77</v>
+      </c>
+      <c r="D125" s="4" t="n">
+        <v>1736</v>
+      </c>
+      <c r="E125" s="4" t="n">
+        <v>133</v>
+      </c>
+      <c r="F125" s="4" t="inlineStr">
+        <is>
+          <t>menu type 2 in new story animation - story mode</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -3467,10 +3423,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="17" customWidth="1" style="3" min="1" max="1"/>
-    <col width="16.44140625" customWidth="1" style="4" min="2" max="2"/>
-    <col width="19.5546875" customWidth="1" style="4" min="3" max="3"/>
-    <col width="49.6640625" customWidth="1" style="4" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" style="3" width="17"/>
+    <col customWidth="1" max="2" min="2" style="4" width="16.44140625"/>
+    <col customWidth="1" max="3" min="3" style="4" width="19.5546875"/>
+    <col customWidth="1" max="4" min="4" style="4" width="49.6640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3532,7 +3488,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1798,13 +1798,13 @@
         </is>
       </c>
       <c r="B56" s="4" t="n">
-        <v>721</v>
+        <v>1240</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>274</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>909</v>
+        <v>1428</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>325</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -578,16 +578,16 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1385</v>
+        <v>0</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>874</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1661</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>912</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -1034,16 +1034,16 @@
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>1219</v>
+        <v>0</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>1470</v>
+        <v>0</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -578,16 +578,16 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0</v>
+        <v>1385</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0</v>
+        <v>874</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0</v>
+        <v>1661</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -1034,16 +1034,16 @@
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>0</v>
+        <v>1219</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>0</v>
+        <v>1470</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -962,16 +962,16 @@
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>715</v>
+        <v>135</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>943</v>
+        <v>512</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>634</v>
+        <v>684</v>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -445,10 +445,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="D126" sqref="A1:F129"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -459,8 +459,8 @@
     <col customWidth="1" max="4" min="4" style="4" width="13.77734375"/>
     <col customWidth="1" max="5" min="5" style="4" width="15"/>
     <col customWidth="1" max="6" min="6" style="4" width="62.21875"/>
-    <col customWidth="1" max="95" min="7" style="4" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="96" style="4" width="8.88671875"/>
+    <col customWidth="1" max="96" min="7" style="4" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="97" style="4" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3564,6 +3564,102 @@
       <c r="F129" s="4" t="inlineStr">
         <is>
           <t>bluestacks menu button</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1446</v>
+      </c>
+      <c r="C130" t="n">
+        <v>941</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1752</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F130" s="4" t="inlineStr">
+        <is>
+          <t>2x rewards</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>997</v>
+      </c>
+      <c r="C131" t="n">
+        <v>640</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1303</v>
+      </c>
+      <c r="E131" t="n">
+        <v>704</v>
+      </c>
+      <c r="F131" s="4" t="inlineStr">
+        <is>
+          <t>watch an ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>747</v>
+      </c>
+      <c r="C132" t="n">
+        <v>490</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1096</v>
+      </c>
+      <c r="E132" t="n">
+        <v>554</v>
+      </c>
+      <c r="F132" s="4" t="inlineStr">
+        <is>
+          <t>ad was stopped dialog -&gt; title</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>796</v>
+      </c>
+      <c r="C133" t="n">
+        <v>672</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1051</v>
+      </c>
+      <c r="E133" t="n">
+        <v>736</v>
+      </c>
+      <c r="F133" s="4" t="inlineStr">
+        <is>
+          <t>ad was stopped dialog -&gt; ok button</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -447,8 +447,8 @@
   </sheetPr>
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="F133" sqref="F133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -459,8 +459,8 @@
     <col customWidth="1" max="4" min="4" style="4" width="13.77734375"/>
     <col customWidth="1" max="5" min="5" style="4" width="15"/>
     <col customWidth="1" max="6" min="6" style="4" width="62.21875"/>
-    <col customWidth="1" max="96" min="7" style="4" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="97" style="4" width="8.88671875"/>
+    <col customWidth="1" max="97" min="7" style="4" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="98" style="4" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3573,16 +3573,16 @@
           <t>133</t>
         </is>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" s="4" t="n">
         <v>1446</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130" s="4" t="n">
         <v>941</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="4" t="n">
         <v>1752</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130" s="4" t="n">
         <v>1005</v>
       </c>
       <c r="F130" s="4" t="inlineStr">
@@ -3597,16 +3597,16 @@
           <t>134</t>
         </is>
       </c>
-      <c r="B131" t="n">
+      <c r="B131" s="4" t="n">
         <v>997</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131" s="4" t="n">
         <v>640</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" s="4" t="n">
         <v>1303</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131" s="4" t="n">
         <v>704</v>
       </c>
       <c r="F131" s="4" t="inlineStr">
@@ -3621,16 +3621,16 @@
           <t>135</t>
         </is>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" s="4" t="n">
         <v>747</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132" s="4" t="n">
         <v>490</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="4" t="n">
         <v>1096</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132" s="4" t="n">
         <v>554</v>
       </c>
       <c r="F132" s="4" t="inlineStr">
@@ -3645,16 +3645,16 @@
           <t>136</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="B133" s="4" t="n">
         <v>796</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133" s="4" t="n">
         <v>672</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="4" t="n">
         <v>1051</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133" s="4" t="n">
         <v>736</v>
       </c>
       <c r="F133" s="4" t="inlineStr">

--- a/data.xlsx
+++ b/data.xlsx
@@ -2014,16 +2014,16 @@
         </is>
       </c>
       <c r="B65" s="4" t="n">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="C65" s="4" t="n">
-        <v>664</v>
+        <v>0</v>
       </c>
       <c r="D65" s="4" t="n">
-        <v>1138</v>
+        <v>0</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2014,16 +2014,16 @@
         </is>
       </c>
       <c r="B65" s="4" t="n">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="C65" s="4" t="n">
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="D65" s="4" t="n">
-        <v>0</v>
+        <v>1138</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>0</v>
+        <v>749</v>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
